--- a/storage/app/iprs/1/week_2.xlsx
+++ b/storage/app/iprs/1/week_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ACC6C3-DB80-4EDB-B698-E765ED3B8109}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA668085-E340-454D-9006-613A67230FCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>M1-W049</t>
+  </si>
+  <si>
+    <t>M1-W007</t>
   </si>
 </sst>
 </file>
@@ -205,7 +208,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF95B3D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -363,6 +372,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,13 +673,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMP48"/>
+  <dimension ref="A1:AMP49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomRight" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1086,7 +1107,7 @@
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
     </row>
-    <row r="7" spans="1:41" ht="15.75" thickBot="1">
+    <row r="7" spans="1:41" ht="16.5" customHeight="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1157,84 +1178,92 @@
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
     </row>
-    <row r="8" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9">
-        <v>2</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="10">
+    <row r="8" spans="1:41" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15">
+        <v>2</v>
+      </c>
+      <c r="F8" s="15">
+        <v>2</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2</v>
+      </c>
+      <c r="H8" s="15">
+        <v>2</v>
+      </c>
+      <c r="I8" s="15">
+        <v>2</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15">
+        <v>5</v>
+      </c>
+      <c r="N8" s="15">
+        <v>14</v>
+      </c>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="16">
+        <v>178</v>
+      </c>
+      <c r="R8" s="14"/>
+      <c r="S8" s="16">
         <v>4</v>
       </c>
-      <c r="N8" s="9">
-        <v>11</v>
-      </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="10">
-        <v>92</v>
-      </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="9">
-        <v>3</v>
-      </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="9">
-        <v>4</v>
-      </c>
-      <c r="X8" s="10">
-        <v>18</v>
-      </c>
-      <c r="Y8" s="8"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="16">
+        <v>0</v>
+      </c>
+      <c r="W8" s="15">
+        <v>3</v>
+      </c>
+      <c r="X8" s="15">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>2</v>
+      </c>
       <c r="Z8" s="12"/>
-      <c r="AA8" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="9">
-        <v>52</v>
-      </c>
-      <c r="AF8" s="10">
-        <v>66</v>
-      </c>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="10">
-        <v>91</v>
-      </c>
-      <c r="AK8" s="9">
-        <v>85.5</v>
-      </c>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
+      <c r="AA8" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="16">
+        <v>42.5</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>16</v>
+      </c>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="16">
+        <v>67</v>
+      </c>
+      <c r="AK8" s="15">
+        <v>62.5</v>
+      </c>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="15">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:41" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1245,73 +1274,71 @@
       <c r="F9" s="9">
         <v>2</v>
       </c>
-      <c r="G9" s="9">
-        <v>2</v>
-      </c>
-      <c r="H9" s="9">
-        <v>2</v>
-      </c>
-      <c r="I9" s="9">
-        <v>2</v>
-      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="9">
-        <v>2</v>
+      <c r="M9" s="10">
+        <v>4</v>
       </c>
       <c r="N9" s="9">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="10">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="9">
-        <v>2</v>
-      </c>
-      <c r="X9" s="9">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="X9" s="10">
+        <v>18</v>
       </c>
       <c r="Y9" s="8"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
-      <c r="AE9" s="10">
-        <v>20.5</v>
-      </c>
-      <c r="AF9" s="9">
-        <v>6</v>
+      <c r="AE9" s="9">
+        <v>52</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>66</v>
       </c>
       <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
+      <c r="AH9" s="10">
+        <v>0</v>
+      </c>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="10">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="AK9" s="9">
-        <v>59</v>
-      </c>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
+        <v>85.5</v>
+      </c>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN9" s="8"/>
       <c r="AO9" s="8"/>
     </row>
     <row r="10" spans="1:41" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1338,39 +1365,39 @@
         <v>2</v>
       </c>
       <c r="N10" s="9">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="10">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R10" s="8"/>
       <c r="S10" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X10" s="9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="8"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
-      <c r="AE10" s="9">
-        <v>30</v>
+      <c r="AE10" s="10">
+        <v>20.5</v>
       </c>
       <c r="AF10" s="9">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
@@ -1379,7 +1406,7 @@
         <v>68</v>
       </c>
       <c r="AK10" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
@@ -1388,44 +1415,76 @@
     </row>
     <row r="11" spans="1:41" ht="15.75" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="E11" s="9">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>2</v>
+      </c>
+      <c r="I11" s="9">
+        <v>2</v>
+      </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="M11" s="9">
+        <v>2</v>
+      </c>
+      <c r="N11" s="9">
+        <v>14</v>
+      </c>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="Q11" s="10">
+        <v>180</v>
+      </c>
       <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
+      <c r="S11" s="9">
+        <v>2</v>
+      </c>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
+      <c r="W11" s="9">
+        <v>4</v>
+      </c>
+      <c r="X11" s="9">
+        <v>7</v>
+      </c>
       <c r="Y11" s="8"/>
       <c r="Z11" s="12"/>
-      <c r="AA11" s="8"/>
+      <c r="AA11" s="9">
+        <v>3</v>
+      </c>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
+      <c r="AE11" s="9">
+        <v>30</v>
+      </c>
+      <c r="AF11" s="9">
+        <v>19</v>
+      </c>
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
+      <c r="AJ11" s="10">
+        <v>68</v>
+      </c>
+      <c r="AK11" s="9">
+        <v>58</v>
+      </c>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="7"/>
@@ -1433,7 +1492,7 @@
     </row>
     <row r="12" spans="1:41" ht="15.75" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1478,80 +1537,52 @@
     </row>
     <row r="13" spans="1:41" ht="15.75" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="9">
-        <v>2</v>
-      </c>
-      <c r="F13" s="9">
-        <v>2</v>
-      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="9">
-        <v>2</v>
-      </c>
-      <c r="N13" s="9">
-        <v>11</v>
-      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="10">
-        <v>170</v>
-      </c>
+      <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="10">
-        <v>6</v>
-      </c>
+      <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="10">
-        <v>0</v>
-      </c>
-      <c r="W13" s="9">
-        <v>2</v>
-      </c>
-      <c r="X13" s="10">
-        <v>0</v>
-      </c>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="12"/>
-      <c r="AA13" s="9">
-        <v>3</v>
-      </c>
+      <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="10">
-        <v>40.75</v>
-      </c>
-      <c r="AF13" s="10">
-        <v>11</v>
-      </c>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
-      <c r="AJ13" s="10">
-        <v>0</v>
-      </c>
+      <c r="AJ13" s="8"/>
       <c r="AK13" s="8"/>
-      <c r="AL13" s="9">
-        <v>32</v>
-      </c>
-      <c r="AM13" s="8"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
       <c r="AN13" s="7"/>
       <c r="AO13" s="8"/>
     </row>
     <row r="14" spans="1:41" ht="15.75" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1569,7 +1600,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N14" s="9">
         <v>11</v>
@@ -1577,11 +1608,11 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="10">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="R14" s="8"/>
       <c r="S14" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
@@ -1589,79 +1620,107 @@
         <v>0</v>
       </c>
       <c r="W14" s="9">
-        <v>4</v>
-      </c>
-      <c r="X14" s="9">
+        <v>2</v>
+      </c>
+      <c r="X14" s="10">
         <v>0</v>
       </c>
       <c r="Y14" s="8"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
-      <c r="AE14" s="9">
-        <v>17.5</v>
+      <c r="AE14" s="10">
+        <v>40.75</v>
       </c>
       <c r="AF14" s="10">
-        <v>41.5</v>
+        <v>11</v>
       </c>
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
       <c r="AJ14" s="10">
-        <v>58</v>
-      </c>
-      <c r="AK14" s="9">
-        <v>55.5</v>
-      </c>
-      <c r="AL14" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="9">
+        <v>32</v>
+      </c>
       <c r="AM14" s="8"/>
       <c r="AN14" s="7"/>
       <c r="AO14" s="8"/>
     </row>
     <row r="15" spans="1:41" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="M15" s="9">
+        <v>3</v>
+      </c>
+      <c r="N15" s="9">
+        <v>11</v>
+      </c>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="Q15" s="10">
+        <v>160</v>
+      </c>
       <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
+      <c r="S15" s="10">
+        <v>5</v>
+      </c>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
+      <c r="V15" s="10">
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <v>4</v>
+      </c>
+      <c r="X15" s="9">
+        <v>0</v>
+      </c>
       <c r="Y15" s="8"/>
       <c r="Z15" s="12"/>
-      <c r="AA15" s="8"/>
+      <c r="AA15" s="9">
+        <v>5</v>
+      </c>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
+      <c r="AE15" s="9">
+        <v>17.5</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>41.5</v>
+      </c>
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
+      <c r="AJ15" s="10">
+        <v>58</v>
+      </c>
+      <c r="AK15" s="9">
+        <v>55.5</v>
+      </c>
       <c r="AL15" s="8"/>
       <c r="AM15" s="8"/>
       <c r="AN15" s="7"/>
@@ -1669,78 +1728,44 @@
     </row>
     <row r="16" spans="1:41" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="9">
-        <v>2</v>
-      </c>
-      <c r="F16" s="9">
-        <v>2</v>
-      </c>
-      <c r="G16" s="9">
-        <v>2</v>
-      </c>
-      <c r="H16" s="9">
-        <v>2</v>
-      </c>
-      <c r="I16" s="9">
-        <v>2</v>
-      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="10">
-        <v>3</v>
-      </c>
-      <c r="N16" s="9">
-        <v>14</v>
-      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="10">
-        <v>180</v>
-      </c>
+      <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="9">
-        <v>5</v>
-      </c>
+      <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
-      <c r="V16" s="10">
-        <v>0</v>
-      </c>
-      <c r="W16" s="9">
-        <v>3</v>
-      </c>
-      <c r="X16" s="10">
-        <v>3</v>
-      </c>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="12"/>
-      <c r="AA16" s="9">
-        <v>5</v>
-      </c>
+      <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
-      <c r="AE16" s="9">
-        <v>35</v>
-      </c>
-      <c r="AF16" s="9">
-        <v>42</v>
-      </c>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
-      <c r="AJ16" s="10">
-        <v>72</v>
-      </c>
-      <c r="AK16" s="10">
-        <v>73</v>
-      </c>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
       <c r="AL16" s="8"/>
       <c r="AM16" s="8"/>
       <c r="AN16" s="7"/>
@@ -1748,44 +1773,78 @@
     </row>
     <row r="17" spans="1:41" ht="15.75" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="E17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>2</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2</v>
+      </c>
+      <c r="I17" s="9">
+        <v>2</v>
+      </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="M17" s="10">
+        <v>3</v>
+      </c>
+      <c r="N17" s="9">
+        <v>14</v>
+      </c>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="Q17" s="10">
+        <v>180</v>
+      </c>
       <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
+      <c r="S17" s="9">
+        <v>5</v>
+      </c>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
+      <c r="V17" s="10">
+        <v>0</v>
+      </c>
+      <c r="W17" s="9">
+        <v>3</v>
+      </c>
+      <c r="X17" s="10">
+        <v>3</v>
+      </c>
       <c r="Y17" s="8"/>
       <c r="Z17" s="12"/>
-      <c r="AA17" s="8"/>
+      <c r="AA17" s="9">
+        <v>5</v>
+      </c>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
+      <c r="AE17" s="9">
+        <v>35</v>
+      </c>
+      <c r="AF17" s="9">
+        <v>42</v>
+      </c>
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
-      <c r="AK17" s="8"/>
+      <c r="AJ17" s="10">
+        <v>72</v>
+      </c>
+      <c r="AK17" s="10">
+        <v>73</v>
+      </c>
       <c r="AL17" s="8"/>
       <c r="AM17" s="8"/>
       <c r="AN17" s="7"/>
@@ -1793,70 +1852,44 @@
     </row>
     <row r="18" spans="1:41" ht="15.75" thickBot="1">
       <c r="A18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="9">
-        <v>2</v>
-      </c>
-      <c r="F18" s="9">
-        <v>2</v>
-      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="9">
-        <v>7</v>
-      </c>
-      <c r="N18" s="9">
-        <v>11</v>
-      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="10">
-        <v>60</v>
-      </c>
+      <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="10">
-        <v>5</v>
-      </c>
+      <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
-      <c r="W18" s="9">
-        <v>2</v>
-      </c>
-      <c r="X18" s="10">
-        <v>1</v>
-      </c>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="12"/>
-      <c r="AA18" s="9">
-        <v>5</v>
-      </c>
+      <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
-      <c r="AE18" s="10">
-        <v>79</v>
-      </c>
-      <c r="AF18" s="10">
-        <v>48</v>
-      </c>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
-      <c r="AJ18" s="9">
-        <v>91</v>
-      </c>
-      <c r="AK18" s="9">
-        <v>80.5</v>
-      </c>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
       <c r="AL18" s="8"/>
       <c r="AM18" s="8"/>
       <c r="AN18" s="7"/>
@@ -1864,44 +1897,70 @@
     </row>
     <row r="19" spans="1:41" ht="15.75" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="E19" s="9">
+        <v>2</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="M19" s="9">
+        <v>7</v>
+      </c>
+      <c r="N19" s="9">
+        <v>11</v>
+      </c>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="Q19" s="10">
+        <v>60</v>
+      </c>
       <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
+      <c r="S19" s="10">
+        <v>5</v>
+      </c>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
+      <c r="W19" s="9">
+        <v>2</v>
+      </c>
+      <c r="X19" s="10">
+        <v>1</v>
+      </c>
       <c r="Y19" s="8"/>
       <c r="Z19" s="12"/>
-      <c r="AA19" s="8"/>
+      <c r="AA19" s="9">
+        <v>5</v>
+      </c>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
+      <c r="AE19" s="10">
+        <v>79</v>
+      </c>
+      <c r="AF19" s="10">
+        <v>48</v>
+      </c>
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
-      <c r="AK19" s="8"/>
+      <c r="AJ19" s="9">
+        <v>91</v>
+      </c>
+      <c r="AK19" s="9">
+        <v>80.5</v>
+      </c>
       <c r="AL19" s="8"/>
       <c r="AM19" s="8"/>
       <c r="AN19" s="7"/>
@@ -1909,7 +1968,7 @@
     </row>
     <row r="20" spans="1:41" ht="15.75" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1945,12 +2004,8 @@
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
-      <c r="AJ20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="9">
-        <v>3</v>
-      </c>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
       <c r="AL20" s="8"/>
       <c r="AM20" s="8"/>
       <c r="AN20" s="7"/>
@@ -1958,75 +2013,47 @@
     </row>
     <row r="21" spans="1:41" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="9">
-        <v>2</v>
-      </c>
-      <c r="F21" s="9">
-        <v>2</v>
-      </c>
-      <c r="G21" s="9">
-        <v>2</v>
-      </c>
-      <c r="H21" s="9">
-        <v>2</v>
-      </c>
-      <c r="I21" s="9">
-        <v>2</v>
-      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="9">
-        <v>6</v>
-      </c>
-      <c r="N21" s="9">
-        <v>4</v>
-      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="9">
-        <v>139</v>
-      </c>
+      <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
-      <c r="S21" s="9">
-        <v>3</v>
-      </c>
+      <c r="S21" s="8"/>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
-      <c r="W21" s="9">
-        <v>4</v>
-      </c>
-      <c r="X21" s="10">
-        <v>12</v>
-      </c>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="12"/>
-      <c r="AA21" s="10">
-        <v>2</v>
-      </c>
+      <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
-      <c r="AE21" s="10">
-        <v>40</v>
-      </c>
-      <c r="AF21" s="9">
-        <v>32</v>
-      </c>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
       <c r="AJ21" s="10">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="9">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="AL21" s="8"/>
       <c r="AM21" s="8"/>
@@ -2035,7 +2062,7 @@
     </row>
     <row r="22" spans="1:41" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -2058,108 +2085,140 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="10">
-        <v>5</v>
+      <c r="M22" s="9">
+        <v>6</v>
       </c>
       <c r="N22" s="9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="10">
-        <v>179</v>
+      <c r="Q22" s="9">
+        <v>139</v>
       </c>
       <c r="R22" s="8"/>
       <c r="S22" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
       <c r="W22" s="9">
-        <v>0</v>
-      </c>
-      <c r="X22" s="9">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="X22" s="10">
+        <v>12</v>
       </c>
       <c r="Y22" s="8"/>
       <c r="Z22" s="12"/>
-      <c r="AA22" s="9">
+      <c r="AA22" s="10">
         <v>2</v>
       </c>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
       <c r="AE22" s="10">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AF22" s="9">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
       <c r="AJ22" s="10">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AK22" s="9">
-        <v>65.5</v>
+        <v>62</v>
       </c>
       <c r="AL22" s="8"/>
-      <c r="AM22" s="9">
-        <v>4</v>
-      </c>
+      <c r="AM22" s="8"/>
       <c r="AN22" s="7"/>
       <c r="AO22" s="8"/>
     </row>
     <row r="23" spans="1:41" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="E23" s="9">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2</v>
+      </c>
+      <c r="G23" s="9">
+        <v>2</v>
+      </c>
+      <c r="H23" s="9">
+        <v>2</v>
+      </c>
+      <c r="I23" s="9">
+        <v>2</v>
+      </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="M23" s="10">
+        <v>5</v>
+      </c>
+      <c r="N23" s="9">
+        <v>11</v>
+      </c>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="Q23" s="10">
+        <v>179</v>
+      </c>
       <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
+      <c r="S23" s="9">
+        <v>1</v>
+      </c>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
+      <c r="W23" s="9">
+        <v>0</v>
+      </c>
+      <c r="X23" s="9">
+        <v>10</v>
+      </c>
       <c r="Y23" s="8"/>
       <c r="Z23" s="12"/>
-      <c r="AA23" s="8"/>
+      <c r="AA23" s="9">
+        <v>2</v>
+      </c>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
+      <c r="AE23" s="10">
+        <v>33</v>
+      </c>
+      <c r="AF23" s="9">
+        <v>9</v>
+      </c>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
       <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
+      <c r="AJ23" s="10">
+        <v>67</v>
+      </c>
+      <c r="AK23" s="9">
+        <v>65.5</v>
+      </c>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="9">
+        <v>4</v>
+      </c>
       <c r="AN23" s="7"/>
       <c r="AO23" s="8"/>
     </row>
     <row r="24" spans="1:41" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2204,80 +2263,52 @@
     </row>
     <row r="25" spans="1:41" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="9">
-        <v>2</v>
-      </c>
-      <c r="F25" s="9">
-        <v>2</v>
-      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="10">
-        <v>5</v>
-      </c>
-      <c r="N25" s="9">
-        <v>11</v>
-      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="10">
-        <v>160</v>
-      </c>
+      <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
-      <c r="S25" s="10">
-        <v>4</v>
-      </c>
+      <c r="S25" s="8"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
-      <c r="V25" s="10">
-        <v>0</v>
-      </c>
-      <c r="W25" s="9">
-        <v>5</v>
-      </c>
-      <c r="X25" s="9">
-        <v>23</v>
-      </c>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="12"/>
-      <c r="AA25" s="9">
-        <v>4</v>
-      </c>
+      <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
-      <c r="AE25" s="9">
-        <v>30.5</v>
-      </c>
-      <c r="AF25" s="10">
-        <v>53</v>
-      </c>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
-      <c r="AJ25" s="9">
-        <v>91</v>
-      </c>
-      <c r="AK25" s="9">
-        <v>83.5</v>
-      </c>
-      <c r="AL25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="7"/>
       <c r="AM25" s="7"/>
       <c r="AN25" s="7"/>
       <c r="AO25" s="8"/>
     </row>
     <row r="26" spans="1:41" ht="15.75" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2294,8 +2325,8 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="9">
-        <v>1</v>
+      <c r="M26" s="10">
+        <v>5</v>
       </c>
       <c r="N26" s="9">
         <v>11</v>
@@ -2303,54 +2334,54 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="10">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="R26" s="8"/>
-      <c r="S26" s="9">
-        <v>2</v>
+      <c r="S26" s="10">
+        <v>4</v>
       </c>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
+      <c r="V26" s="10">
+        <v>0</v>
+      </c>
       <c r="W26" s="9">
         <v>5</v>
       </c>
       <c r="X26" s="9">
-        <v>15</v>
-      </c>
-      <c r="Y26" s="9">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="Y26" s="8"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
       <c r="AE26" s="9">
-        <v>13.5</v>
-      </c>
-      <c r="AF26" s="9">
-        <v>11</v>
+        <v>30.5</v>
+      </c>
+      <c r="AF26" s="10">
+        <v>53</v>
       </c>
       <c r="AG26" s="8"/>
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
-      <c r="AJ26" s="10">
-        <v>47</v>
+      <c r="AJ26" s="9">
+        <v>91</v>
       </c>
       <c r="AK26" s="9">
-        <v>41.5</v>
-      </c>
-      <c r="AL26" s="7"/>
+        <v>83.5</v>
+      </c>
+      <c r="AL26" s="8"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
       <c r="AO26" s="8"/>
     </row>
     <row r="27" spans="1:41" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2361,68 +2392,60 @@
       <c r="F27" s="9">
         <v>2</v>
       </c>
-      <c r="G27" s="9">
-        <v>2</v>
-      </c>
-      <c r="H27" s="9">
-        <v>2</v>
-      </c>
-      <c r="I27" s="9">
-        <v>2</v>
-      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N27" s="9">
         <v>11</v>
       </c>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="9">
-        <v>171</v>
+      <c r="Q27" s="10">
+        <v>0</v>
       </c>
       <c r="R27" s="8"/>
       <c r="S27" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
-      <c r="V27" s="10">
-        <v>0</v>
-      </c>
+      <c r="V27" s="8"/>
       <c r="W27" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X27" s="9">
-        <v>13</v>
-      </c>
-      <c r="Y27" s="10">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="Y27" s="9">
+        <v>1</v>
       </c>
       <c r="Z27" s="12"/>
       <c r="AA27" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
-      <c r="AE27" s="10">
-        <v>38.5</v>
+      <c r="AE27" s="9">
+        <v>13.5</v>
       </c>
       <c r="AF27" s="9">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AG27" s="8"/>
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
       <c r="AJ27" s="10">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AK27" s="9">
-        <v>72.5</v>
+        <v>41.5</v>
       </c>
       <c r="AL27" s="7"/>
       <c r="AM27" s="7"/>
@@ -2431,44 +2454,80 @@
     </row>
     <row r="28" spans="1:41" ht="15.75" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="E28" s="9">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2</v>
+      </c>
+      <c r="G28" s="9">
+        <v>2</v>
+      </c>
+      <c r="H28" s="9">
+        <v>2</v>
+      </c>
+      <c r="I28" s="9">
+        <v>2</v>
+      </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
+      <c r="M28" s="9">
+        <v>4</v>
+      </c>
+      <c r="N28" s="9">
+        <v>11</v>
+      </c>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="Q28" s="9">
+        <v>171</v>
+      </c>
       <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
+      <c r="S28" s="9">
+        <v>3</v>
+      </c>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
+      <c r="V28" s="10">
+        <v>0</v>
+      </c>
+      <c r="W28" s="9">
+        <v>2</v>
+      </c>
+      <c r="X28" s="9">
+        <v>13</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>0</v>
+      </c>
       <c r="Z28" s="12"/>
-      <c r="AA28" s="8"/>
+      <c r="AA28" s="9">
+        <v>2</v>
+      </c>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8"/>
+      <c r="AE28" s="10">
+        <v>38.5</v>
+      </c>
+      <c r="AF28" s="9">
+        <v>29</v>
+      </c>
       <c r="AG28" s="8"/>
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
-      <c r="AJ28" s="8"/>
-      <c r="AK28" s="8"/>
+      <c r="AJ28" s="10">
+        <v>78</v>
+      </c>
+      <c r="AK28" s="9">
+        <v>72.5</v>
+      </c>
       <c r="AL28" s="7"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="7"/>
@@ -2476,70 +2535,44 @@
     </row>
     <row r="29" spans="1:41" ht="15.75" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="9">
-        <v>2</v>
-      </c>
-      <c r="F29" s="9">
-        <v>2</v>
-      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
-      <c r="M29" s="9">
-        <v>4</v>
-      </c>
-      <c r="N29" s="9">
-        <v>9</v>
-      </c>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="10">
-        <v>162</v>
-      </c>
+      <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
-      <c r="S29" s="9">
-        <v>5</v>
-      </c>
+      <c r="S29" s="8"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
-      <c r="W29" s="9">
-        <v>7</v>
-      </c>
-      <c r="X29" s="10">
-        <v>20</v>
-      </c>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
       <c r="Z29" s="12"/>
-      <c r="AA29" s="9">
-        <v>2</v>
-      </c>
+      <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
-      <c r="AE29" s="10">
-        <v>40</v>
-      </c>
-      <c r="AF29" s="9">
-        <v>35</v>
-      </c>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
-      <c r="AJ29" s="9">
-        <v>91</v>
-      </c>
-      <c r="AK29" s="9">
-        <v>87.5</v>
-      </c>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
       <c r="AL29" s="7"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
@@ -2547,46 +2580,70 @@
     </row>
     <row r="30" spans="1:41" ht="15.75" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="E30" s="9">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2</v>
+      </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
+      <c r="M30" s="9">
+        <v>4</v>
+      </c>
+      <c r="N30" s="9">
+        <v>9</v>
+      </c>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="10">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
+      <c r="S30" s="9">
+        <v>5</v>
+      </c>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
+      <c r="W30" s="9">
+        <v>7</v>
+      </c>
+      <c r="X30" s="10">
+        <v>20</v>
+      </c>
       <c r="Y30" s="8"/>
       <c r="Z30" s="12"/>
-      <c r="AA30" s="8"/>
+      <c r="AA30" s="9">
+        <v>2</v>
+      </c>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
+      <c r="AE30" s="10">
+        <v>40</v>
+      </c>
+      <c r="AF30" s="9">
+        <v>35</v>
+      </c>
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
-      <c r="AJ30" s="8"/>
-      <c r="AK30" s="8"/>
+      <c r="AJ30" s="9">
+        <v>91</v>
+      </c>
+      <c r="AK30" s="9">
+        <v>87.5</v>
+      </c>
       <c r="AL30" s="7"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
@@ -2594,7 +2651,7 @@
     </row>
     <row r="31" spans="1:41" ht="15.75" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2611,7 +2668,9 @@
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="Q31" s="10">
+        <v>0</v>
+      </c>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
@@ -2632,89 +2691,59 @@
       <c r="AI31" s="8"/>
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
-      <c r="AL31" s="8"/>
+      <c r="AL31" s="7"/>
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
       <c r="AO31" s="8"/>
     </row>
     <row r="32" spans="1:41" ht="15.75" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="9">
-        <v>2</v>
-      </c>
-      <c r="F32" s="9">
-        <v>2</v>
-      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="N32" s="9">
-        <v>19</v>
-      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="9">
-        <v>42</v>
-      </c>
-      <c r="Q32" s="9">
-        <v>52</v>
-      </c>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="9">
-        <v>4</v>
-      </c>
+      <c r="S32" s="8"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
-      <c r="W32" s="9">
-        <v>4</v>
-      </c>
-      <c r="X32" s="9">
-        <v>23</v>
-      </c>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="12"/>
-      <c r="AA32" s="9">
-        <v>2</v>
-      </c>
+      <c r="AA32" s="8"/>
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
-      <c r="AE32" s="9">
-        <v>54.5</v>
-      </c>
-      <c r="AF32" s="9">
-        <v>40</v>
-      </c>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
-      <c r="AJ32" s="9">
-        <v>91</v>
-      </c>
-      <c r="AK32" s="9">
-        <v>75.5</v>
-      </c>
-      <c r="AL32" s="7"/>
-      <c r="AM32" s="9">
-        <v>2</v>
-      </c>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="7"/>
       <c r="AN32" s="7"/>
       <c r="AO32" s="8"/>
     </row>
     <row r="33" spans="1:41" ht="15.75" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2732,44 +2761,44 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="9">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N33" s="9">
         <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c r="P33" s="9">
-        <v>36</v>
-      </c>
-      <c r="Q33" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>52</v>
+      </c>
       <c r="R33" s="8"/>
       <c r="S33" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
-      <c r="V33" s="10">
-        <v>0</v>
-      </c>
+      <c r="V33" s="8"/>
       <c r="W33" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X33" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Y33" s="8"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
       <c r="AE33" s="9">
-        <v>65</v>
-      </c>
-      <c r="AF33" s="10">
-        <v>71</v>
+        <v>54.5</v>
+      </c>
+      <c r="AF33" s="9">
+        <v>40</v>
       </c>
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
@@ -2778,16 +2807,18 @@
         <v>91</v>
       </c>
       <c r="AK33" s="9">
-        <v>81</v>
+        <v>75.5</v>
       </c>
       <c r="AL33" s="7"/>
-      <c r="AM33" s="7"/>
+      <c r="AM33" s="9">
+        <v>2</v>
+      </c>
       <c r="AN33" s="7"/>
       <c r="AO33" s="8"/>
     </row>
     <row r="34" spans="1:41" ht="15.75" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2805,21 +2836,19 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N34" s="9">
         <v>19</v>
       </c>
       <c r="O34" s="8"/>
-      <c r="P34" s="10">
-        <v>38</v>
-      </c>
-      <c r="Q34" s="9">
-        <v>120</v>
-      </c>
+      <c r="P34" s="9">
+        <v>36</v>
+      </c>
+      <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
@@ -2827,24 +2856,24 @@
         <v>0</v>
       </c>
       <c r="W34" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X34" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y34" s="8"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
-      <c r="AE34" s="10">
-        <v>72.5</v>
-      </c>
-      <c r="AF34" s="9">
-        <v>61</v>
+      <c r="AE34" s="9">
+        <v>65</v>
+      </c>
+      <c r="AF34" s="10">
+        <v>71</v>
       </c>
       <c r="AG34" s="8"/>
       <c r="AH34" s="8"/>
@@ -2853,7 +2882,7 @@
         <v>91</v>
       </c>
       <c r="AK34" s="9">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AL34" s="7"/>
       <c r="AM34" s="7"/>
@@ -2862,44 +2891,74 @@
     </row>
     <row r="35" spans="1:41" ht="15.75" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="E35" s="9">
+        <v>2</v>
+      </c>
+      <c r="F35" s="9">
+        <v>2</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
+      <c r="M35" s="9">
+        <v>7</v>
+      </c>
+      <c r="N35" s="9">
+        <v>19</v>
+      </c>
       <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
+      <c r="P35" s="10">
+        <v>38</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>120</v>
+      </c>
       <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
+      <c r="S35" s="9">
+        <v>2</v>
+      </c>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
+      <c r="V35" s="10">
+        <v>0</v>
+      </c>
+      <c r="W35" s="9">
+        <v>2</v>
+      </c>
+      <c r="X35" s="9">
+        <v>21</v>
+      </c>
       <c r="Y35" s="8"/>
       <c r="Z35" s="12"/>
-      <c r="AA35" s="8"/>
+      <c r="AA35" s="9">
+        <v>5</v>
+      </c>
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
+      <c r="AE35" s="10">
+        <v>72.5</v>
+      </c>
+      <c r="AF35" s="9">
+        <v>61</v>
+      </c>
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
       <c r="AI35" s="8"/>
-      <c r="AJ35" s="8"/>
-      <c r="AK35" s="8"/>
+      <c r="AJ35" s="9">
+        <v>91</v>
+      </c>
+      <c r="AK35" s="9">
+        <v>91</v>
+      </c>
       <c r="AL35" s="7"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="7"/>
@@ -2907,84 +2966,52 @@
     </row>
     <row r="36" spans="1:41" ht="15.75" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="9">
-        <v>2</v>
-      </c>
-      <c r="F36" s="9">
-        <v>2</v>
-      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="9">
-        <v>11</v>
-      </c>
-      <c r="N36" s="9">
-        <v>19</v>
-      </c>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="10">
-        <v>38</v>
-      </c>
-      <c r="Q36" s="9">
-        <v>56</v>
-      </c>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
-      <c r="S36" s="9">
-        <v>4</v>
-      </c>
+      <c r="S36" s="8"/>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
-      <c r="W36" s="9">
-        <v>5</v>
-      </c>
-      <c r="X36" s="9">
-        <v>21</v>
-      </c>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
       <c r="Z36" s="12"/>
-      <c r="AA36" s="9">
-        <v>4</v>
-      </c>
+      <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
       <c r="AD36" s="8"/>
-      <c r="AE36" s="10">
-        <v>73.5</v>
-      </c>
-      <c r="AF36" s="9">
-        <v>51</v>
-      </c>
-      <c r="AG36" s="9">
-        <v>0</v>
-      </c>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
       <c r="AH36" s="8"/>
       <c r="AI36" s="8"/>
-      <c r="AJ36" s="9">
-        <v>91</v>
-      </c>
-      <c r="AK36" s="9">
-        <v>89.5</v>
-      </c>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
       <c r="AL36" s="7"/>
-      <c r="AM36" s="9">
-        <v>4</v>
-      </c>
+      <c r="AM36" s="7"/>
       <c r="AN36" s="7"/>
       <c r="AO36" s="8"/>
     </row>
     <row r="37" spans="1:41" ht="15.75" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3002,7 +3029,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N37" s="9">
         <v>19</v>
@@ -3011,97 +3038,89 @@
       <c r="P37" s="10">
         <v>38</v>
       </c>
-      <c r="Q37" s="10">
-        <v>180</v>
+      <c r="Q37" s="9">
+        <v>56</v>
       </c>
       <c r="R37" s="8"/>
       <c r="S37" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
-      <c r="V37" s="10">
-        <v>0</v>
-      </c>
+      <c r="V37" s="8"/>
       <c r="W37" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X37" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y37" s="8"/>
       <c r="Z37" s="12"/>
       <c r="AA37" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="10">
-        <v>41</v>
-      </c>
-      <c r="AF37" s="10">
-        <v>46</v>
-      </c>
-      <c r="AG37" s="10">
+        <v>73.5</v>
+      </c>
+      <c r="AF37" s="9">
+        <v>51</v>
+      </c>
+      <c r="AG37" s="9">
         <v>0</v>
       </c>
-      <c r="AH37" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="AH37" s="8"/>
       <c r="AI37" s="8"/>
       <c r="AJ37" s="9">
         <v>91</v>
       </c>
       <c r="AK37" s="9">
-        <v>85</v>
+        <v>89.5</v>
       </c>
       <c r="AL37" s="7"/>
-      <c r="AM37" s="8"/>
+      <c r="AM37" s="9">
+        <v>4</v>
+      </c>
       <c r="AN37" s="7"/>
       <c r="AO37" s="8"/>
     </row>
     <row r="38" spans="1:41" ht="15.75" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9">
-        <v>2</v>
-      </c>
-      <c r="C38" s="9">
-        <v>3</v>
-      </c>
-      <c r="D38" s="9">
-        <v>3</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9">
+        <v>2</v>
+      </c>
+      <c r="F38" s="9">
+        <v>2</v>
+      </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="9">
-        <v>2</v>
-      </c>
-      <c r="K38" s="9">
-        <v>1</v>
-      </c>
-      <c r="L38" s="9">
-        <v>2</v>
-      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
       <c r="M38" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N38" s="9">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="9">
-        <v>24</v>
+      <c r="P38" s="10">
+        <v>38</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>180</v>
       </c>
       <c r="R38" s="8"/>
       <c r="S38" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
@@ -3109,44 +3128,46 @@
         <v>0</v>
       </c>
       <c r="W38" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X38" s="9">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Y38" s="8"/>
       <c r="Z38" s="12"/>
       <c r="AA38" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
       <c r="AE38" s="10">
-        <v>87</v>
-      </c>
-      <c r="AF38" s="9">
-        <v>58</v>
-      </c>
-      <c r="AG38" s="8"/>
-      <c r="AH38" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="AF38" s="10">
+        <v>46</v>
+      </c>
+      <c r="AG38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="9">
+        <v>0.5</v>
+      </c>
       <c r="AI38" s="8"/>
-      <c r="AJ38" s="10">
-        <v>66</v>
+      <c r="AJ38" s="9">
+        <v>91</v>
       </c>
       <c r="AK38" s="9">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AL38" s="7"/>
-      <c r="AM38" s="9">
-        <v>1</v>
-      </c>
+      <c r="AM38" s="8"/>
       <c r="AN38" s="7"/>
       <c r="AO38" s="8"/>
     </row>
     <row r="39" spans="1:41" ht="15.75" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="9">
         <v>2</v>
@@ -3163,49 +3184,73 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="9">
+        <v>2</v>
+      </c>
+      <c r="K39" s="9">
         <v>1</v>
       </c>
-      <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>1</v>
-      </c>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="M39" s="9">
+        <v>5</v>
+      </c>
+      <c r="N39" s="9">
+        <v>10</v>
+      </c>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
+      <c r="Q39" s="9">
+        <v>24</v>
+      </c>
       <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
+      <c r="S39" s="9">
+        <v>4</v>
+      </c>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
+      <c r="V39" s="10">
+        <v>0</v>
+      </c>
+      <c r="W39" s="9">
+        <v>3</v>
+      </c>
+      <c r="X39" s="9">
+        <v>15</v>
+      </c>
       <c r="Y39" s="8"/>
       <c r="Z39" s="12"/>
-      <c r="AA39" s="8"/>
+      <c r="AA39" s="9">
+        <v>1</v>
+      </c>
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="8"/>
+      <c r="AE39" s="10">
+        <v>87</v>
+      </c>
+      <c r="AF39" s="9">
+        <v>58</v>
+      </c>
       <c r="AG39" s="8"/>
       <c r="AH39" s="8"/>
       <c r="AI39" s="8"/>
       <c r="AJ39" s="10">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="AK39" s="9">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="AL39" s="7"/>
-      <c r="AM39" s="7"/>
+      <c r="AM39" s="9">
+        <v>1</v>
+      </c>
       <c r="AN39" s="7"/>
       <c r="AO39" s="8"/>
     </row>
     <row r="40" spans="1:41" ht="15.75" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="9">
         <v>2</v>
@@ -3222,56 +3267,40 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="9">
-        <v>2</v>
-      </c>
-      <c r="K40" s="9">
         <v>1</v>
       </c>
+      <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>2</v>
-      </c>
-      <c r="M40" s="9">
-        <v>2</v>
-      </c>
-      <c r="N40" s="9">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
-      <c r="S40" s="9">
-        <v>1</v>
-      </c>
+      <c r="S40" s="8"/>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
-      <c r="W40" s="9">
-        <v>1</v>
-      </c>
-      <c r="X40" s="9">
-        <v>10</v>
-      </c>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
       <c r="AD40" s="8"/>
-      <c r="AE40" s="10">
-        <v>15.75</v>
-      </c>
-      <c r="AF40" s="9">
-        <v>13</v>
-      </c>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
       <c r="AG40" s="8"/>
       <c r="AH40" s="8"/>
       <c r="AI40" s="8"/>
       <c r="AJ40" s="10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AK40" s="9">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AL40" s="7"/>
       <c r="AM40" s="7"/>
@@ -3280,7 +3309,7 @@
     </row>
     <row r="41" spans="1:41" ht="15.75" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="9">
         <v>2</v>
@@ -3297,40 +3326,56 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="9">
+        <v>2</v>
+      </c>
+      <c r="K41" s="9">
         <v>1</v>
       </c>
-      <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>1</v>
-      </c>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="M41" s="9">
+        <v>2</v>
+      </c>
+      <c r="N41" s="9">
+        <v>10</v>
+      </c>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
+      <c r="S41" s="9">
+        <v>1</v>
+      </c>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
+      <c r="W41" s="9">
+        <v>1</v>
+      </c>
+      <c r="X41" s="9">
+        <v>10</v>
+      </c>
       <c r="Y41" s="8"/>
       <c r="Z41" s="12"/>
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="8"/>
+      <c r="AE41" s="10">
+        <v>15.75</v>
+      </c>
+      <c r="AF41" s="9">
+        <v>13</v>
+      </c>
       <c r="AG41" s="8"/>
       <c r="AH41" s="8"/>
       <c r="AI41" s="8"/>
       <c r="AJ41" s="10">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AK41" s="9">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AL41" s="7"/>
       <c r="AM41" s="7"/>
@@ -3339,7 +3384,7 @@
     </row>
     <row r="42" spans="1:41" ht="15.75" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="9">
         <v>2</v>
@@ -3386,7 +3431,7 @@
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
       <c r="AJ42" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK42" s="9">
         <v>3</v>
@@ -3398,7 +3443,7 @@
     </row>
     <row r="43" spans="1:41" ht="15.75" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="9">
         <v>2</v>
@@ -3415,62 +3460,40 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="9">
-        <v>2</v>
-      </c>
-      <c r="K43" s="9">
         <v>1</v>
       </c>
+      <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>2</v>
-      </c>
-      <c r="M43" s="9">
-        <v>8</v>
-      </c>
-      <c r="N43" s="9">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
-      <c r="Q43" s="9">
-        <v>63</v>
-      </c>
+      <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
-      <c r="S43" s="9">
-        <v>3</v>
-      </c>
+      <c r="S43" s="8"/>
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
-      <c r="V43" s="10">
-        <v>0</v>
-      </c>
-      <c r="W43" s="9">
-        <v>2</v>
-      </c>
-      <c r="X43" s="9">
-        <v>10</v>
-      </c>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
       <c r="Z43" s="12"/>
-      <c r="AA43" s="9">
-        <v>3</v>
-      </c>
+      <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
-      <c r="AE43" s="9">
-        <v>104</v>
-      </c>
-      <c r="AF43" s="9">
-        <v>62</v>
-      </c>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
       <c r="AG43" s="8"/>
       <c r="AH43" s="8"/>
       <c r="AI43" s="8"/>
-      <c r="AJ43" s="9">
-        <v>82</v>
+      <c r="AJ43" s="10">
+        <v>0</v>
       </c>
       <c r="AK43" s="9">
-        <v>76.5</v>
+        <v>3</v>
       </c>
       <c r="AL43" s="7"/>
       <c r="AM43" s="7"/>
@@ -3479,7 +3502,7 @@
     </row>
     <row r="44" spans="1:41" ht="15.75" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="9">
         <v>2</v>
@@ -3505,7 +3528,7 @@
         <v>2</v>
       </c>
       <c r="M44" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N44" s="9">
         <v>15</v>
@@ -3513,45 +3536,45 @@
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="9">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="R44" s="8"/>
       <c r="S44" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T44" s="8"/>
-      <c r="U44" s="9">
-        <v>1</v>
-      </c>
-      <c r="V44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="10">
+        <v>0</v>
+      </c>
       <c r="W44" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X44" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y44" s="8"/>
       <c r="Z44" s="12"/>
       <c r="AA44" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
       <c r="AD44" s="8"/>
-      <c r="AE44" s="10">
-        <v>57.5</v>
+      <c r="AE44" s="9">
+        <v>104</v>
       </c>
       <c r="AF44" s="9">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="AG44" s="8"/>
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
       <c r="AJ44" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK44" s="9">
-        <v>73.5</v>
+        <v>76.5</v>
       </c>
       <c r="AL44" s="7"/>
       <c r="AM44" s="7"/>
@@ -3560,7 +3583,7 @@
     </row>
     <row r="45" spans="1:41" ht="15.75" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="9">
         <v>2</v>
@@ -3593,40 +3616,46 @@
       </c>
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
+      <c r="Q45" s="9">
+        <v>98</v>
+      </c>
       <c r="R45" s="8"/>
       <c r="S45" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
+      <c r="U45" s="9">
+        <v>1</v>
+      </c>
       <c r="V45" s="8"/>
       <c r="W45" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X45" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y45" s="8"/>
       <c r="Z45" s="12"/>
-      <c r="AA45" s="8"/>
+      <c r="AA45" s="9">
+        <v>2</v>
+      </c>
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
       <c r="AD45" s="8"/>
-      <c r="AE45" s="9">
-        <v>32.5</v>
+      <c r="AE45" s="10">
+        <v>57.5</v>
       </c>
       <c r="AF45" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AG45" s="8"/>
       <c r="AH45" s="8"/>
       <c r="AI45" s="8"/>
       <c r="AJ45" s="9">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="AK45" s="9">
-        <v>29.5</v>
+        <v>73.5</v>
       </c>
       <c r="AL45" s="7"/>
       <c r="AM45" s="7"/>
@@ -3635,7 +3664,7 @@
     </row>
     <row r="46" spans="1:41" ht="15.75" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="9">
         <v>2</v>
@@ -3677,10 +3706,10 @@
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
       <c r="W46" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X46" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y46" s="8"/>
       <c r="Z46" s="12"/>
@@ -3689,7 +3718,7 @@
       <c r="AC46" s="8"/>
       <c r="AD46" s="8"/>
       <c r="AE46" s="9">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="AF46" s="9">
         <v>25</v>
@@ -3697,18 +3726,20 @@
       <c r="AG46" s="8"/>
       <c r="AH46" s="8"/>
       <c r="AI46" s="8"/>
-      <c r="AJ46" s="8"/>
-      <c r="AK46" s="8"/>
-      <c r="AL46" s="9">
-        <v>12</v>
-      </c>
+      <c r="AJ46" s="9">
+        <v>31</v>
+      </c>
+      <c r="AK46" s="9">
+        <v>29.5</v>
+      </c>
+      <c r="AL46" s="7"/>
       <c r="AM46" s="7"/>
       <c r="AN46" s="7"/>
       <c r="AO46" s="8"/>
     </row>
     <row r="47" spans="1:41" ht="15.75" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="9">
         <v>2</v>
@@ -3734,7 +3765,7 @@
         <v>2</v>
       </c>
       <c r="M47" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" s="9">
         <v>15</v>
@@ -3744,7 +3775,7 @@
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
@@ -3753,7 +3784,7 @@
         <v>3</v>
       </c>
       <c r="X47" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y47" s="8"/>
       <c r="Z47" s="12"/>
@@ -3762,28 +3793,26 @@
       <c r="AC47" s="8"/>
       <c r="AD47" s="8"/>
       <c r="AE47" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF47" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG47" s="8"/>
       <c r="AH47" s="8"/>
       <c r="AI47" s="8"/>
-      <c r="AJ47" s="9">
-        <v>32</v>
-      </c>
-      <c r="AK47" s="9">
-        <v>30.5</v>
-      </c>
-      <c r="AL47" s="7"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="9">
+        <v>12</v>
+      </c>
       <c r="AM47" s="7"/>
       <c r="AN47" s="7"/>
       <c r="AO47" s="8"/>
     </row>
     <row r="48" spans="1:41" ht="15.75" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="9">
         <v>2</v>
@@ -3808,8 +3837,8 @@
       <c r="L48" s="9">
         <v>2</v>
       </c>
-      <c r="M48" s="10">
-        <v>4</v>
+      <c r="M48" s="9">
+        <v>5</v>
       </c>
       <c r="N48" s="9">
         <v>15</v>
@@ -3825,7 +3854,7 @@
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
       <c r="W48" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X48" s="9">
         <v>12</v>
@@ -3837,24 +3866,99 @@
       <c r="AC48" s="8"/>
       <c r="AD48" s="8"/>
       <c r="AE48" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF48" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AG48" s="8"/>
       <c r="AH48" s="8"/>
       <c r="AI48" s="8"/>
-      <c r="AJ48" s="10">
-        <v>29</v>
+      <c r="AJ48" s="9">
+        <v>32</v>
       </c>
       <c r="AK48" s="9">
-        <v>29</v>
+        <v>30.5</v>
       </c>
       <c r="AL48" s="7"/>
       <c r="AM48" s="7"/>
       <c r="AN48" s="7"/>
       <c r="AO48" s="8"/>
+    </row>
+    <row r="49" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="9">
+        <v>2</v>
+      </c>
+      <c r="C49" s="9">
+        <v>3</v>
+      </c>
+      <c r="D49" s="9">
+        <v>3</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="9">
+        <v>2</v>
+      </c>
+      <c r="K49" s="9">
+        <v>1</v>
+      </c>
+      <c r="L49" s="9">
+        <v>2</v>
+      </c>
+      <c r="M49" s="10">
+        <v>4</v>
+      </c>
+      <c r="N49" s="9">
+        <v>15</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="9">
+        <v>1</v>
+      </c>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="9">
+        <v>1</v>
+      </c>
+      <c r="X49" s="9">
+        <v>12</v>
+      </c>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="9">
+        <v>33</v>
+      </c>
+      <c r="AF49" s="9">
+        <v>18</v>
+      </c>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="10">
+        <v>29</v>
+      </c>
+      <c r="AK49" s="9">
+        <v>29</v>
+      </c>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+      <c r="AO49" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/storage/app/iprs/1/week_2.xlsx
+++ b/storage/app/iprs/1/week_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA668085-E340-454D-9006-613A67230FCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CE3C3B-F470-46CA-8946-57999F80C2E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -176,6 +176,9 @@
   <si>
     <t>M1-W007</t>
   </si>
+  <si>
+    <t>M1-W022</t>
+  </si>
 </sst>
 </file>
 
@@ -208,7 +211,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +254,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6E3BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEECE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -333,11 +354,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -384,6 +435,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,13 +742,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMP49"/>
+  <dimension ref="A1:AMP1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B51" sqref="B51"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2138,132 +2207,162 @@
       <c r="AO22" s="8"/>
     </row>
     <row r="23" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9">
-        <v>2</v>
-      </c>
-      <c r="F23" s="9">
-        <v>2</v>
-      </c>
-      <c r="G23" s="9">
-        <v>2</v>
-      </c>
-      <c r="H23" s="9">
-        <v>2</v>
-      </c>
-      <c r="I23" s="9">
-        <v>2</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="10">
-        <v>5</v>
-      </c>
-      <c r="N23" s="9">
+      <c r="A23" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="15">
+        <v>2</v>
+      </c>
+      <c r="F23" s="15">
+        <v>2</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="16">
+        <v>7</v>
+      </c>
+      <c r="N23" s="15">
         <v>11</v>
       </c>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="10">
-        <v>179</v>
-      </c>
-      <c r="R23" s="8"/>
-      <c r="S23" s="9">
-        <v>1</v>
-      </c>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="9">
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="16">
+        <v>219</v>
+      </c>
+      <c r="R23" s="14"/>
+      <c r="S23" s="15">
+        <v>4</v>
+      </c>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16">
         <v>0</v>
       </c>
-      <c r="X23" s="9">
-        <v>10</v>
-      </c>
-      <c r="Y23" s="8"/>
+      <c r="W23" s="15">
+        <v>4</v>
+      </c>
+      <c r="X23" s="15">
+        <v>12</v>
+      </c>
+      <c r="Y23" s="14"/>
       <c r="Z23" s="12"/>
-      <c r="AA23" s="9">
-        <v>2</v>
-      </c>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="10">
-        <v>33</v>
-      </c>
-      <c r="AF23" s="9">
-        <v>9</v>
-      </c>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="10">
-        <v>67</v>
-      </c>
-      <c r="AK23" s="9">
-        <v>65.5</v>
-      </c>
-      <c r="AL23" s="8"/>
-      <c r="AM23" s="9">
-        <v>4</v>
-      </c>
-      <c r="AN23" s="7"/>
+      <c r="AA23" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="15">
+        <v>31</v>
+      </c>
+      <c r="AF23" s="15">
+        <v>42</v>
+      </c>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="15">
+        <v>91</v>
+      </c>
+      <c r="AK23" s="15">
+        <v>91</v>
+      </c>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="15">
+        <v>2</v>
+      </c>
+      <c r="AN23" s="14"/>
       <c r="AO23" s="8"/>
     </row>
     <row r="24" spans="1:41" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="E24" s="9">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9">
+        <v>2</v>
+      </c>
+      <c r="G24" s="9">
+        <v>2</v>
+      </c>
+      <c r="H24" s="9">
+        <v>2</v>
+      </c>
+      <c r="I24" s="9">
+        <v>2</v>
+      </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="M24" s="10">
+        <v>5</v>
+      </c>
+      <c r="N24" s="9">
+        <v>11</v>
+      </c>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
+      <c r="Q24" s="10">
+        <v>179</v>
+      </c>
       <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
+      <c r="S24" s="9">
+        <v>1</v>
+      </c>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
+      <c r="W24" s="9">
+        <v>0</v>
+      </c>
+      <c r="X24" s="9">
+        <v>10</v>
+      </c>
       <c r="Y24" s="8"/>
       <c r="Z24" s="12"/>
-      <c r="AA24" s="8"/>
+      <c r="AA24" s="9">
+        <v>2</v>
+      </c>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
       <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
+      <c r="AE24" s="10">
+        <v>33</v>
+      </c>
+      <c r="AF24" s="9">
+        <v>9</v>
+      </c>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
+      <c r="AJ24" s="10">
+        <v>67</v>
+      </c>
+      <c r="AK24" s="9">
+        <v>65.5</v>
+      </c>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="9">
+        <v>4</v>
+      </c>
       <c r="AN24" s="7"/>
       <c r="AO24" s="8"/>
     </row>
     <row r="25" spans="1:41" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2308,80 +2407,52 @@
     </row>
     <row r="26" spans="1:41" ht="15.75" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="9">
-        <v>2</v>
-      </c>
-      <c r="F26" s="9">
-        <v>2</v>
-      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="10">
-        <v>5</v>
-      </c>
-      <c r="N26" s="9">
-        <v>11</v>
-      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="10">
-        <v>160</v>
-      </c>
+      <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
-      <c r="S26" s="10">
-        <v>4</v>
-      </c>
+      <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
-      <c r="V26" s="10">
-        <v>0</v>
-      </c>
-      <c r="W26" s="9">
-        <v>5</v>
-      </c>
-      <c r="X26" s="9">
-        <v>23</v>
-      </c>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
       <c r="Z26" s="12"/>
-      <c r="AA26" s="9">
-        <v>4</v>
-      </c>
+      <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
-      <c r="AE26" s="9">
-        <v>30.5</v>
-      </c>
-      <c r="AF26" s="10">
-        <v>53</v>
-      </c>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
-      <c r="AJ26" s="9">
-        <v>91</v>
-      </c>
-      <c r="AK26" s="9">
-        <v>83.5</v>
-      </c>
-      <c r="AL26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="7"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
       <c r="AO26" s="8"/>
     </row>
     <row r="27" spans="1:41" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2398,8 +2469,8 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="9">
-        <v>1</v>
+      <c r="M27" s="10">
+        <v>5</v>
       </c>
       <c r="N27" s="9">
         <v>11</v>
@@ -2407,54 +2478,54 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="10">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="R27" s="8"/>
-      <c r="S27" s="9">
-        <v>2</v>
+      <c r="S27" s="10">
+        <v>4</v>
       </c>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
+      <c r="V27" s="10">
+        <v>0</v>
+      </c>
       <c r="W27" s="9">
         <v>5</v>
       </c>
       <c r="X27" s="9">
-        <v>15</v>
-      </c>
-      <c r="Y27" s="9">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="Y27" s="8"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
       <c r="AE27" s="9">
-        <v>13.5</v>
-      </c>
-      <c r="AF27" s="9">
-        <v>11</v>
+        <v>30.5</v>
+      </c>
+      <c r="AF27" s="10">
+        <v>53</v>
       </c>
       <c r="AG27" s="8"/>
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
-      <c r="AJ27" s="10">
-        <v>47</v>
+      <c r="AJ27" s="9">
+        <v>91</v>
       </c>
       <c r="AK27" s="9">
-        <v>41.5</v>
-      </c>
-      <c r="AL27" s="7"/>
+        <v>83.5</v>
+      </c>
+      <c r="AL27" s="8"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
       <c r="AO27" s="8"/>
     </row>
     <row r="28" spans="1:41" ht="15.75" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2465,68 +2536,60 @@
       <c r="F28" s="9">
         <v>2</v>
       </c>
-      <c r="G28" s="9">
-        <v>2</v>
-      </c>
-      <c r="H28" s="9">
-        <v>2</v>
-      </c>
-      <c r="I28" s="9">
-        <v>2</v>
-      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N28" s="9">
         <v>11</v>
       </c>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="9">
-        <v>171</v>
+      <c r="Q28" s="10">
+        <v>0</v>
       </c>
       <c r="R28" s="8"/>
       <c r="S28" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
-      <c r="V28" s="10">
-        <v>0</v>
-      </c>
+      <c r="V28" s="8"/>
       <c r="W28" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X28" s="9">
-        <v>13</v>
-      </c>
-      <c r="Y28" s="10">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="Y28" s="9">
+        <v>1</v>
       </c>
       <c r="Z28" s="12"/>
       <c r="AA28" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="10">
-        <v>38.5</v>
+      <c r="AE28" s="9">
+        <v>13.5</v>
       </c>
       <c r="AF28" s="9">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AG28" s="8"/>
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
       <c r="AJ28" s="10">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AK28" s="9">
-        <v>72.5</v>
+        <v>41.5</v>
       </c>
       <c r="AL28" s="7"/>
       <c r="AM28" s="7"/>
@@ -2535,44 +2598,80 @@
     </row>
     <row r="29" spans="1:41" ht="15.75" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="E29" s="9">
+        <v>2</v>
+      </c>
+      <c r="F29" s="9">
+        <v>2</v>
+      </c>
+      <c r="G29" s="9">
+        <v>2</v>
+      </c>
+      <c r="H29" s="9">
+        <v>2</v>
+      </c>
+      <c r="I29" s="9">
+        <v>2</v>
+      </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
+      <c r="M29" s="9">
+        <v>4</v>
+      </c>
+      <c r="N29" s="9">
+        <v>11</v>
+      </c>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="Q29" s="9">
+        <v>171</v>
+      </c>
       <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
+      <c r="S29" s="9">
+        <v>3</v>
+      </c>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
+      <c r="V29" s="10">
+        <v>0</v>
+      </c>
+      <c r="W29" s="9">
+        <v>2</v>
+      </c>
+      <c r="X29" s="9">
+        <v>13</v>
+      </c>
+      <c r="Y29" s="10">
+        <v>0</v>
+      </c>
       <c r="Z29" s="12"/>
-      <c r="AA29" s="8"/>
+      <c r="AA29" s="9">
+        <v>2</v>
+      </c>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
+      <c r="AE29" s="10">
+        <v>38.5</v>
+      </c>
+      <c r="AF29" s="9">
+        <v>29</v>
+      </c>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
-      <c r="AJ29" s="8"/>
-      <c r="AK29" s="8"/>
+      <c r="AJ29" s="10">
+        <v>78</v>
+      </c>
+      <c r="AK29" s="9">
+        <v>72.5</v>
+      </c>
       <c r="AL29" s="7"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
@@ -2580,70 +2679,44 @@
     </row>
     <row r="30" spans="1:41" ht="15.75" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="9">
-        <v>2</v>
-      </c>
-      <c r="F30" s="9">
-        <v>2</v>
-      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="9">
-        <v>4</v>
-      </c>
-      <c r="N30" s="9">
-        <v>9</v>
-      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="10">
-        <v>162</v>
-      </c>
+      <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
-      <c r="S30" s="9">
-        <v>5</v>
-      </c>
+      <c r="S30" s="8"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
-      <c r="W30" s="9">
-        <v>7</v>
-      </c>
-      <c r="X30" s="10">
-        <v>20</v>
-      </c>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="12"/>
-      <c r="AA30" s="9">
-        <v>2</v>
-      </c>
+      <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
-      <c r="AE30" s="10">
-        <v>40</v>
-      </c>
-      <c r="AF30" s="9">
-        <v>35</v>
-      </c>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
-      <c r="AJ30" s="9">
-        <v>91</v>
-      </c>
-      <c r="AK30" s="9">
-        <v>87.5</v>
-      </c>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
       <c r="AL30" s="7"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
@@ -2651,46 +2724,70 @@
     </row>
     <row r="31" spans="1:41" ht="15.75" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="E31" s="9">
+        <v>2</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
+      <c r="M31" s="9">
+        <v>4</v>
+      </c>
+      <c r="N31" s="9">
+        <v>9</v>
+      </c>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="10">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
+      <c r="S31" s="9">
+        <v>5</v>
+      </c>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
+      <c r="W31" s="9">
+        <v>7</v>
+      </c>
+      <c r="X31" s="10">
+        <v>20</v>
+      </c>
       <c r="Y31" s="8"/>
       <c r="Z31" s="12"/>
-      <c r="AA31" s="8"/>
+      <c r="AA31" s="9">
+        <v>2</v>
+      </c>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8"/>
+      <c r="AE31" s="10">
+        <v>40</v>
+      </c>
+      <c r="AF31" s="9">
+        <v>35</v>
+      </c>
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
       <c r="AI31" s="8"/>
-      <c r="AJ31" s="8"/>
-      <c r="AK31" s="8"/>
+      <c r="AJ31" s="9">
+        <v>91</v>
+      </c>
+      <c r="AK31" s="9">
+        <v>87.5</v>
+      </c>
       <c r="AL31" s="7"/>
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
@@ -2698,7 +2795,7 @@
     </row>
     <row r="32" spans="1:41" ht="15.75" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2715,7 +2812,9 @@
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
+      <c r="Q32" s="10">
+        <v>0</v>
+      </c>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
@@ -2736,89 +2835,59 @@
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8"/>
-      <c r="AL32" s="8"/>
+      <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
       <c r="AN32" s="7"/>
       <c r="AO32" s="8"/>
     </row>
     <row r="33" spans="1:41" ht="15.75" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="9">
-        <v>2</v>
-      </c>
-      <c r="F33" s="9">
-        <v>2</v>
-      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="N33" s="9">
-        <v>19</v>
-      </c>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="9">
-        <v>42</v>
-      </c>
-      <c r="Q33" s="9">
-        <v>52</v>
-      </c>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
-      <c r="S33" s="9">
-        <v>4</v>
-      </c>
+      <c r="S33" s="8"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
-      <c r="W33" s="9">
-        <v>4</v>
-      </c>
-      <c r="X33" s="9">
-        <v>23</v>
-      </c>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
       <c r="Z33" s="12"/>
-      <c r="AA33" s="9">
-        <v>2</v>
-      </c>
+      <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
-      <c r="AE33" s="9">
-        <v>54.5</v>
-      </c>
-      <c r="AF33" s="9">
-        <v>40</v>
-      </c>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="8"/>
-      <c r="AJ33" s="9">
-        <v>91</v>
-      </c>
-      <c r="AK33" s="9">
-        <v>75.5</v>
-      </c>
-      <c r="AL33" s="7"/>
-      <c r="AM33" s="9">
-        <v>2</v>
-      </c>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="7"/>
       <c r="AN33" s="7"/>
       <c r="AO33" s="8"/>
     </row>
     <row r="34" spans="1:41" ht="15.75" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2836,44 +2905,44 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="9">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N34" s="9">
         <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c r="P34" s="9">
-        <v>36</v>
-      </c>
-      <c r="Q34" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>52</v>
+      </c>
       <c r="R34" s="8"/>
       <c r="S34" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
-      <c r="V34" s="10">
-        <v>0</v>
-      </c>
+      <c r="V34" s="8"/>
       <c r="W34" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X34" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Y34" s="8"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
       <c r="AE34" s="9">
-        <v>65</v>
-      </c>
-      <c r="AF34" s="10">
-        <v>71</v>
+        <v>54.5</v>
+      </c>
+      <c r="AF34" s="9">
+        <v>40</v>
       </c>
       <c r="AG34" s="8"/>
       <c r="AH34" s="8"/>
@@ -2882,16 +2951,18 @@
         <v>91</v>
       </c>
       <c r="AK34" s="9">
-        <v>81</v>
+        <v>75.5</v>
       </c>
       <c r="AL34" s="7"/>
-      <c r="AM34" s="7"/>
+      <c r="AM34" s="9">
+        <v>2</v>
+      </c>
       <c r="AN34" s="7"/>
       <c r="AO34" s="8"/>
     </row>
     <row r="35" spans="1:41" ht="15.75" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2909,21 +2980,19 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N35" s="9">
         <v>19</v>
       </c>
       <c r="O35" s="8"/>
-      <c r="P35" s="10">
-        <v>38</v>
-      </c>
-      <c r="Q35" s="9">
-        <v>120</v>
-      </c>
+      <c r="P35" s="9">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
@@ -2931,24 +3000,24 @@
         <v>0</v>
       </c>
       <c r="W35" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X35" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y35" s="8"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
-      <c r="AE35" s="10">
-        <v>72.5</v>
-      </c>
-      <c r="AF35" s="9">
-        <v>61</v>
+      <c r="AE35" s="9">
+        <v>65</v>
+      </c>
+      <c r="AF35" s="10">
+        <v>71</v>
       </c>
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
@@ -2957,7 +3026,7 @@
         <v>91</v>
       </c>
       <c r="AK35" s="9">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AL35" s="7"/>
       <c r="AM35" s="7"/>
@@ -2966,44 +3035,74 @@
     </row>
     <row r="36" spans="1:41" ht="15.75" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="E36" s="9">
+        <v>2</v>
+      </c>
+      <c r="F36" s="9">
+        <v>2</v>
+      </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
+      <c r="M36" s="9">
+        <v>7</v>
+      </c>
+      <c r="N36" s="9">
+        <v>19</v>
+      </c>
       <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+      <c r="P36" s="10">
+        <v>38</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>120</v>
+      </c>
       <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
+      <c r="S36" s="9">
+        <v>2</v>
+      </c>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
+      <c r="V36" s="10">
+        <v>0</v>
+      </c>
+      <c r="W36" s="9">
+        <v>2</v>
+      </c>
+      <c r="X36" s="9">
+        <v>21</v>
+      </c>
       <c r="Y36" s="8"/>
       <c r="Z36" s="12"/>
-      <c r="AA36" s="8"/>
+      <c r="AA36" s="9">
+        <v>5</v>
+      </c>
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
       <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
+      <c r="AE36" s="10">
+        <v>72.5</v>
+      </c>
+      <c r="AF36" s="9">
+        <v>61</v>
+      </c>
       <c r="AG36" s="8"/>
       <c r="AH36" s="8"/>
       <c r="AI36" s="8"/>
-      <c r="AJ36" s="8"/>
-      <c r="AK36" s="8"/>
+      <c r="AJ36" s="9">
+        <v>91</v>
+      </c>
+      <c r="AK36" s="9">
+        <v>91</v>
+      </c>
       <c r="AL36" s="7"/>
       <c r="AM36" s="7"/>
       <c r="AN36" s="7"/>
@@ -3011,84 +3110,52 @@
     </row>
     <row r="37" spans="1:41" ht="15.75" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="9">
-        <v>2</v>
-      </c>
-      <c r="F37" s="9">
-        <v>2</v>
-      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="9">
-        <v>11</v>
-      </c>
-      <c r="N37" s="9">
-        <v>19</v>
-      </c>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
       <c r="O37" s="8"/>
-      <c r="P37" s="10">
-        <v>38</v>
-      </c>
-      <c r="Q37" s="9">
-        <v>56</v>
-      </c>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
-      <c r="S37" s="9">
-        <v>4</v>
-      </c>
+      <c r="S37" s="8"/>
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
-      <c r="W37" s="9">
-        <v>5</v>
-      </c>
-      <c r="X37" s="9">
-        <v>21</v>
-      </c>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
       <c r="Z37" s="12"/>
-      <c r="AA37" s="9">
-        <v>4</v>
-      </c>
+      <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
-      <c r="AE37" s="10">
-        <v>73.5</v>
-      </c>
-      <c r="AF37" s="9">
-        <v>51</v>
-      </c>
-      <c r="AG37" s="9">
-        <v>0</v>
-      </c>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="8"/>
-      <c r="AJ37" s="9">
-        <v>91</v>
-      </c>
-      <c r="AK37" s="9">
-        <v>89.5</v>
-      </c>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
       <c r="AL37" s="7"/>
-      <c r="AM37" s="9">
-        <v>4</v>
-      </c>
+      <c r="AM37" s="7"/>
       <c r="AN37" s="7"/>
       <c r="AO37" s="8"/>
     </row>
     <row r="38" spans="1:41" ht="15.75" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3106,7 +3173,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N38" s="9">
         <v>19</v>
@@ -3115,97 +3182,89 @@
       <c r="P38" s="10">
         <v>38</v>
       </c>
-      <c r="Q38" s="10">
-        <v>180</v>
+      <c r="Q38" s="9">
+        <v>56</v>
       </c>
       <c r="R38" s="8"/>
       <c r="S38" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
-      <c r="V38" s="10">
-        <v>0</v>
-      </c>
+      <c r="V38" s="8"/>
       <c r="W38" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X38" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y38" s="8"/>
       <c r="Z38" s="12"/>
       <c r="AA38" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
       <c r="AE38" s="10">
-        <v>41</v>
-      </c>
-      <c r="AF38" s="10">
-        <v>46</v>
-      </c>
-      <c r="AG38" s="10">
+        <v>73.5</v>
+      </c>
+      <c r="AF38" s="9">
+        <v>51</v>
+      </c>
+      <c r="AG38" s="9">
         <v>0</v>
       </c>
-      <c r="AH38" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
       <c r="AJ38" s="9">
         <v>91</v>
       </c>
       <c r="AK38" s="9">
-        <v>85</v>
+        <v>89.5</v>
       </c>
       <c r="AL38" s="7"/>
-      <c r="AM38" s="8"/>
+      <c r="AM38" s="9">
+        <v>4</v>
+      </c>
       <c r="AN38" s="7"/>
       <c r="AO38" s="8"/>
     </row>
     <row r="39" spans="1:41" ht="15.75" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="9">
-        <v>2</v>
-      </c>
-      <c r="C39" s="9">
-        <v>3</v>
-      </c>
-      <c r="D39" s="9">
-        <v>3</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9">
+        <v>2</v>
+      </c>
+      <c r="F39" s="9">
+        <v>2</v>
+      </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="9">
-        <v>2</v>
-      </c>
-      <c r="K39" s="9">
-        <v>1</v>
-      </c>
-      <c r="L39" s="9">
-        <v>2</v>
-      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
       <c r="M39" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N39" s="9">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="9">
-        <v>24</v>
+      <c r="P39" s="10">
+        <v>38</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>180</v>
       </c>
       <c r="R39" s="8"/>
       <c r="S39" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
@@ -3213,44 +3272,46 @@
         <v>0</v>
       </c>
       <c r="W39" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X39" s="9">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Y39" s="8"/>
       <c r="Z39" s="12"/>
       <c r="AA39" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
       <c r="AE39" s="10">
-        <v>87</v>
-      </c>
-      <c r="AF39" s="9">
-        <v>58</v>
-      </c>
-      <c r="AG39" s="8"/>
-      <c r="AH39" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="AF39" s="10">
+        <v>46</v>
+      </c>
+      <c r="AG39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="9">
+        <v>0.5</v>
+      </c>
       <c r="AI39" s="8"/>
-      <c r="AJ39" s="10">
-        <v>66</v>
+      <c r="AJ39" s="9">
+        <v>91</v>
       </c>
       <c r="AK39" s="9">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AL39" s="7"/>
-      <c r="AM39" s="9">
-        <v>1</v>
-      </c>
+      <c r="AM39" s="8"/>
       <c r="AN39" s="7"/>
       <c r="AO39" s="8"/>
     </row>
     <row r="40" spans="1:41" ht="15.75" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="9">
         <v>2</v>
@@ -3267,49 +3328,73 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="9">
+        <v>2</v>
+      </c>
+      <c r="K40" s="9">
         <v>1</v>
       </c>
-      <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>1</v>
-      </c>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="M40" s="9">
+        <v>5</v>
+      </c>
+      <c r="N40" s="9">
+        <v>10</v>
+      </c>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
+      <c r="Q40" s="9">
+        <v>24</v>
+      </c>
       <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
+      <c r="S40" s="9">
+        <v>4</v>
+      </c>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
+      <c r="V40" s="10">
+        <v>0</v>
+      </c>
+      <c r="W40" s="9">
+        <v>3</v>
+      </c>
+      <c r="X40" s="9">
+        <v>15</v>
+      </c>
       <c r="Y40" s="8"/>
       <c r="Z40" s="12"/>
-      <c r="AA40" s="8"/>
+      <c r="AA40" s="9">
+        <v>1</v>
+      </c>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
       <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="8"/>
+      <c r="AE40" s="10">
+        <v>87</v>
+      </c>
+      <c r="AF40" s="9">
+        <v>58</v>
+      </c>
       <c r="AG40" s="8"/>
       <c r="AH40" s="8"/>
       <c r="AI40" s="8"/>
       <c r="AJ40" s="10">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="AK40" s="9">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="AL40" s="7"/>
-      <c r="AM40" s="7"/>
+      <c r="AM40" s="9">
+        <v>1</v>
+      </c>
       <c r="AN40" s="7"/>
       <c r="AO40" s="8"/>
     </row>
     <row r="41" spans="1:41" ht="15.75" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="9">
         <v>2</v>
@@ -3326,56 +3411,40 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="9">
-        <v>2</v>
-      </c>
-      <c r="K41" s="9">
         <v>1</v>
       </c>
+      <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>2</v>
-      </c>
-      <c r="M41" s="9">
-        <v>2</v>
-      </c>
-      <c r="N41" s="9">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
-      <c r="S41" s="9">
-        <v>1</v>
-      </c>
+      <c r="S41" s="8"/>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
-      <c r="W41" s="9">
-        <v>1</v>
-      </c>
-      <c r="X41" s="9">
-        <v>10</v>
-      </c>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
       <c r="Z41" s="12"/>
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
-      <c r="AE41" s="10">
-        <v>15.75</v>
-      </c>
-      <c r="AF41" s="9">
-        <v>13</v>
-      </c>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
       <c r="AG41" s="8"/>
       <c r="AH41" s="8"/>
       <c r="AI41" s="8"/>
       <c r="AJ41" s="10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AK41" s="9">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AL41" s="7"/>
       <c r="AM41" s="7"/>
@@ -3384,7 +3453,7 @@
     </row>
     <row r="42" spans="1:41" ht="15.75" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="9">
         <v>2</v>
@@ -3401,40 +3470,56 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="9">
+        <v>2</v>
+      </c>
+      <c r="K42" s="9">
         <v>1</v>
       </c>
-      <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>1</v>
-      </c>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="M42" s="9">
+        <v>2</v>
+      </c>
+      <c r="N42" s="9">
+        <v>10</v>
+      </c>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
+      <c r="S42" s="9">
+        <v>1</v>
+      </c>
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
+      <c r="W42" s="9">
+        <v>1</v>
+      </c>
+      <c r="X42" s="9">
+        <v>10</v>
+      </c>
       <c r="Y42" s="8"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
       <c r="AD42" s="8"/>
-      <c r="AE42" s="8"/>
-      <c r="AF42" s="8"/>
+      <c r="AE42" s="10">
+        <v>15.75</v>
+      </c>
+      <c r="AF42" s="9">
+        <v>13</v>
+      </c>
       <c r="AG42" s="8"/>
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
       <c r="AJ42" s="10">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AK42" s="9">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AL42" s="7"/>
       <c r="AM42" s="7"/>
@@ -3443,7 +3528,7 @@
     </row>
     <row r="43" spans="1:41" ht="15.75" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="9">
         <v>2</v>
@@ -3490,7 +3575,7 @@
       <c r="AH43" s="8"/>
       <c r="AI43" s="8"/>
       <c r="AJ43" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK43" s="9">
         <v>3</v>
@@ -3502,7 +3587,7 @@
     </row>
     <row r="44" spans="1:41" ht="15.75" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="9">
         <v>2</v>
@@ -3519,62 +3604,40 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="9">
-        <v>2</v>
-      </c>
-      <c r="K44" s="9">
         <v>1</v>
       </c>
+      <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>2</v>
-      </c>
-      <c r="M44" s="9">
-        <v>8</v>
-      </c>
-      <c r="N44" s="9">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
-      <c r="Q44" s="9">
-        <v>63</v>
-      </c>
+      <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
-      <c r="S44" s="9">
-        <v>3</v>
-      </c>
+      <c r="S44" s="8"/>
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
-      <c r="V44" s="10">
-        <v>0</v>
-      </c>
-      <c r="W44" s="9">
-        <v>2</v>
-      </c>
-      <c r="X44" s="9">
-        <v>10</v>
-      </c>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
       <c r="Z44" s="12"/>
-      <c r="AA44" s="9">
-        <v>3</v>
-      </c>
+      <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
       <c r="AD44" s="8"/>
-      <c r="AE44" s="9">
-        <v>104</v>
-      </c>
-      <c r="AF44" s="9">
-        <v>62</v>
-      </c>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
       <c r="AG44" s="8"/>
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
-      <c r="AJ44" s="9">
-        <v>82</v>
+      <c r="AJ44" s="10">
+        <v>0</v>
       </c>
       <c r="AK44" s="9">
-        <v>76.5</v>
+        <v>3</v>
       </c>
       <c r="AL44" s="7"/>
       <c r="AM44" s="7"/>
@@ -3583,7 +3646,7 @@
     </row>
     <row r="45" spans="1:41" ht="15.75" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="9">
         <v>2</v>
@@ -3609,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="M45" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N45" s="9">
         <v>15</v>
@@ -3617,45 +3680,45 @@
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="9">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="R45" s="8"/>
       <c r="S45" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T45" s="8"/>
-      <c r="U45" s="9">
-        <v>1</v>
-      </c>
-      <c r="V45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="10">
+        <v>0</v>
+      </c>
       <c r="W45" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X45" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y45" s="8"/>
       <c r="Z45" s="12"/>
       <c r="AA45" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
       <c r="AD45" s="8"/>
-      <c r="AE45" s="10">
-        <v>57.5</v>
+      <c r="AE45" s="9">
+        <v>104</v>
       </c>
       <c r="AF45" s="9">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="AG45" s="8"/>
       <c r="AH45" s="8"/>
       <c r="AI45" s="8"/>
       <c r="AJ45" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK45" s="9">
-        <v>73.5</v>
+        <v>76.5</v>
       </c>
       <c r="AL45" s="7"/>
       <c r="AM45" s="7"/>
@@ -3664,7 +3727,7 @@
     </row>
     <row r="46" spans="1:41" ht="15.75" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="9">
         <v>2</v>
@@ -3697,40 +3760,46 @@
       </c>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
+      <c r="Q46" s="9">
+        <v>98</v>
+      </c>
       <c r="R46" s="8"/>
       <c r="S46" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
+      <c r="U46" s="9">
+        <v>1</v>
+      </c>
       <c r="V46" s="8"/>
       <c r="W46" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X46" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y46" s="8"/>
       <c r="Z46" s="12"/>
-      <c r="AA46" s="8"/>
+      <c r="AA46" s="9">
+        <v>2</v>
+      </c>
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
       <c r="AD46" s="8"/>
-      <c r="AE46" s="9">
-        <v>32.5</v>
+      <c r="AE46" s="10">
+        <v>57.5</v>
       </c>
       <c r="AF46" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AG46" s="8"/>
       <c r="AH46" s="8"/>
       <c r="AI46" s="8"/>
       <c r="AJ46" s="9">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="AK46" s="9">
-        <v>29.5</v>
+        <v>73.5</v>
       </c>
       <c r="AL46" s="7"/>
       <c r="AM46" s="7"/>
@@ -3739,7 +3808,7 @@
     </row>
     <row r="47" spans="1:41" ht="15.75" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="9">
         <v>2</v>
@@ -3781,10 +3850,10 @@
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
       <c r="W47" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X47" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y47" s="8"/>
       <c r="Z47" s="12"/>
@@ -3793,7 +3862,7 @@
       <c r="AC47" s="8"/>
       <c r="AD47" s="8"/>
       <c r="AE47" s="9">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="AF47" s="9">
         <v>25</v>
@@ -3801,18 +3870,20 @@
       <c r="AG47" s="8"/>
       <c r="AH47" s="8"/>
       <c r="AI47" s="8"/>
-      <c r="AJ47" s="8"/>
-      <c r="AK47" s="8"/>
-      <c r="AL47" s="9">
-        <v>12</v>
-      </c>
+      <c r="AJ47" s="9">
+        <v>31</v>
+      </c>
+      <c r="AK47" s="9">
+        <v>29.5</v>
+      </c>
+      <c r="AL47" s="7"/>
       <c r="AM47" s="7"/>
       <c r="AN47" s="7"/>
       <c r="AO47" s="8"/>
     </row>
     <row r="48" spans="1:41" ht="15.75" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="9">
         <v>2</v>
@@ -3838,7 +3909,7 @@
         <v>2</v>
       </c>
       <c r="M48" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" s="9">
         <v>15</v>
@@ -3848,7 +3919,7 @@
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
@@ -3857,7 +3928,7 @@
         <v>3</v>
       </c>
       <c r="X48" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y48" s="8"/>
       <c r="Z48" s="12"/>
@@ -3866,28 +3937,26 @@
       <c r="AC48" s="8"/>
       <c r="AD48" s="8"/>
       <c r="AE48" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF48" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG48" s="8"/>
       <c r="AH48" s="8"/>
       <c r="AI48" s="8"/>
-      <c r="AJ48" s="9">
-        <v>32</v>
-      </c>
-      <c r="AK48" s="9">
-        <v>30.5</v>
-      </c>
-      <c r="AL48" s="7"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="9">
+        <v>12</v>
+      </c>
       <c r="AM48" s="7"/>
       <c r="AN48" s="7"/>
       <c r="AO48" s="8"/>
     </row>
     <row r="49" spans="1:41" ht="15.75" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="9">
         <v>2</v>
@@ -3912,8 +3981,8 @@
       <c r="L49" s="9">
         <v>2</v>
       </c>
-      <c r="M49" s="10">
-        <v>4</v>
+      <c r="M49" s="9">
+        <v>5</v>
       </c>
       <c r="N49" s="9">
         <v>15</v>
@@ -3929,7 +3998,7 @@
       <c r="U49" s="8"/>
       <c r="V49" s="8"/>
       <c r="W49" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X49" s="9">
         <v>12</v>
@@ -3941,24 +4010,2947 @@
       <c r="AC49" s="8"/>
       <c r="AD49" s="8"/>
       <c r="AE49" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF49" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AG49" s="8"/>
       <c r="AH49" s="8"/>
       <c r="AI49" s="8"/>
-      <c r="AJ49" s="10">
-        <v>29</v>
+      <c r="AJ49" s="9">
+        <v>32</v>
       </c>
       <c r="AK49" s="9">
-        <v>29</v>
+        <v>30.5</v>
       </c>
       <c r="AL49" s="7"/>
       <c r="AM49" s="7"/>
       <c r="AN49" s="7"/>
       <c r="AO49" s="8"/>
+    </row>
+    <row r="50" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="9">
+        <v>2</v>
+      </c>
+      <c r="C50" s="9">
+        <v>3</v>
+      </c>
+      <c r="D50" s="9">
+        <v>3</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="9">
+        <v>2</v>
+      </c>
+      <c r="K50" s="9">
+        <v>1</v>
+      </c>
+      <c r="L50" s="9">
+        <v>2</v>
+      </c>
+      <c r="M50" s="10">
+        <v>4</v>
+      </c>
+      <c r="N50" s="9">
+        <v>15</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="9">
+        <v>1</v>
+      </c>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="9">
+        <v>1</v>
+      </c>
+      <c r="X50" s="9">
+        <v>12</v>
+      </c>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="9">
+        <v>33</v>
+      </c>
+      <c r="AF50" s="9">
+        <v>18</v>
+      </c>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="10">
+        <v>29</v>
+      </c>
+      <c r="AK50" s="9">
+        <v>29</v>
+      </c>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="8"/>
+    </row>
+    <row r="51" spans="1:41" ht="15" thickBot="1"/>
+    <row r="52" spans="1:41" ht="15.75" thickBot="1">
+      <c r="B52" s="17"/>
+    </row>
+    <row r="53" spans="1:41" ht="15.75" thickBot="1">
+      <c r="B53" s="21"/>
+    </row>
+    <row r="54" spans="1:41" ht="15.75" thickBot="1">
+      <c r="B54" s="21"/>
+    </row>
+    <row r="55" spans="1:41" ht="15.75" thickBot="1">
+      <c r="B55" s="21"/>
+    </row>
+    <row r="56" spans="1:41" ht="15.75" thickBot="1">
+      <c r="B56" s="21"/>
+    </row>
+    <row r="57" spans="1:41" ht="15.75" thickBot="1">
+      <c r="B57" s="21"/>
+    </row>
+    <row r="58" spans="1:41" ht="15.75" thickBot="1">
+      <c r="B58" s="21"/>
+    </row>
+    <row r="59" spans="1:41" ht="15.75" thickBot="1">
+      <c r="B59" s="21"/>
+    </row>
+    <row r="60" spans="1:41" ht="15.75" thickBot="1">
+      <c r="B60" s="21"/>
+    </row>
+    <row r="61" spans="1:41" ht="15.75" thickBot="1">
+      <c r="B61" s="21"/>
+    </row>
+    <row r="62" spans="1:41" ht="15.75" thickBot="1">
+      <c r="B62" s="21"/>
+    </row>
+    <row r="63" spans="1:41" ht="15.75" thickBot="1">
+      <c r="B63" s="21"/>
+    </row>
+    <row r="64" spans="1:41" ht="15.75" thickBot="1">
+      <c r="B64" s="21"/>
+    </row>
+    <row r="65" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B65" s="21"/>
+    </row>
+    <row r="66" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B66" s="21"/>
+    </row>
+    <row r="67" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B67" s="21"/>
+    </row>
+    <row r="68" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B68" s="21"/>
+    </row>
+    <row r="69" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B69" s="21"/>
+    </row>
+    <row r="70" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B70" s="21"/>
+    </row>
+    <row r="71" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B71" s="21"/>
+    </row>
+    <row r="72" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B72" s="21"/>
+    </row>
+    <row r="73" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B73" s="21"/>
+    </row>
+    <row r="74" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B74" s="21"/>
+    </row>
+    <row r="75" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B75" s="21"/>
+    </row>
+    <row r="76" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B76" s="21"/>
+    </row>
+    <row r="77" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B77" s="21"/>
+    </row>
+    <row r="78" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B78" s="21"/>
+    </row>
+    <row r="79" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B79" s="22"/>
+    </row>
+    <row r="80" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B80" s="22"/>
+    </row>
+    <row r="81" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B81" s="22"/>
+    </row>
+    <row r="82" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B82" s="22"/>
+    </row>
+    <row r="83" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B83" s="22"/>
+    </row>
+    <row r="84" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B84" s="22"/>
+    </row>
+    <row r="85" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B85" s="22"/>
+    </row>
+    <row r="86" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B86" s="22"/>
+    </row>
+    <row r="87" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B87" s="22"/>
+    </row>
+    <row r="88" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B88" s="22"/>
+    </row>
+    <row r="89" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B89" s="22"/>
+    </row>
+    <row r="90" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B90" s="22"/>
+    </row>
+    <row r="91" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B91" s="22"/>
+    </row>
+    <row r="92" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B92" s="22"/>
+    </row>
+    <row r="93" spans="2:2" thickBot="1">
+      <c r="B93" s="22"/>
+    </row>
+    <row r="94" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B94" s="22"/>
+    </row>
+    <row r="95" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B95" s="22"/>
+    </row>
+    <row r="96" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B96" s="22"/>
+    </row>
+    <row r="97" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B97" s="22"/>
+    </row>
+    <row r="98" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B98" s="22"/>
+    </row>
+    <row r="99" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B99" s="22"/>
+    </row>
+    <row r="100" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B100" s="22"/>
+    </row>
+    <row r="101" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B101" s="22"/>
+    </row>
+    <row r="102" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B102" s="22"/>
+    </row>
+    <row r="103" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B103" s="22"/>
+    </row>
+    <row r="104" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B104" s="22"/>
+    </row>
+    <row r="105" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B105" s="22"/>
+    </row>
+    <row r="106" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B106" s="22"/>
+    </row>
+    <row r="107" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B107" s="22"/>
+    </row>
+    <row r="108" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B108" s="22"/>
+    </row>
+    <row r="109" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B109" s="22"/>
+    </row>
+    <row r="110" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B110" s="22"/>
+    </row>
+    <row r="111" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B111" s="22"/>
+    </row>
+    <row r="112" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B112" s="22"/>
+    </row>
+    <row r="113" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B113" s="22"/>
+    </row>
+    <row r="114" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B114" s="22"/>
+    </row>
+    <row r="115" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B115" s="22"/>
+    </row>
+    <row r="116" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B116" s="22"/>
+    </row>
+    <row r="117" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B117" s="22"/>
+    </row>
+    <row r="118" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B118" s="22"/>
+    </row>
+    <row r="119" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B119" s="22"/>
+    </row>
+    <row r="120" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B120" s="22"/>
+    </row>
+    <row r="121" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B121" s="22"/>
+    </row>
+    <row r="122" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B122" s="22"/>
+    </row>
+    <row r="123" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B123" s="22"/>
+    </row>
+    <row r="124" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B124" s="22"/>
+    </row>
+    <row r="125" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B125" s="22"/>
+    </row>
+    <row r="126" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B126" s="22"/>
+    </row>
+    <row r="127" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B127" s="22"/>
+    </row>
+    <row r="128" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B128" s="22"/>
+    </row>
+    <row r="129" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B129" s="22"/>
+    </row>
+    <row r="130" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B130" s="22"/>
+    </row>
+    <row r="131" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B131" s="22"/>
+    </row>
+    <row r="132" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B132" s="22"/>
+    </row>
+    <row r="133" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B133" s="22"/>
+    </row>
+    <row r="134" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B134" s="22"/>
+    </row>
+    <row r="135" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B135" s="22"/>
+    </row>
+    <row r="136" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B136" s="22"/>
+    </row>
+    <row r="137" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B137" s="22"/>
+    </row>
+    <row r="138" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B138" s="22"/>
+    </row>
+    <row r="139" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B139" s="22"/>
+    </row>
+    <row r="140" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B140" s="22"/>
+    </row>
+    <row r="141" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B141" s="22"/>
+    </row>
+    <row r="142" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B142" s="22"/>
+    </row>
+    <row r="143" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B143" s="22"/>
+    </row>
+    <row r="144" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B144" s="22"/>
+    </row>
+    <row r="145" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B145" s="22"/>
+    </row>
+    <row r="146" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B146" s="22"/>
+    </row>
+    <row r="147" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B147" s="22"/>
+    </row>
+    <row r="148" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B148" s="22"/>
+    </row>
+    <row r="149" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B149" s="22"/>
+    </row>
+    <row r="150" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B150" s="22"/>
+    </row>
+    <row r="151" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B151" s="22"/>
+    </row>
+    <row r="152" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B152" s="22"/>
+    </row>
+    <row r="153" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B153" s="22"/>
+    </row>
+    <row r="154" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B154" s="22"/>
+    </row>
+    <row r="155" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B155" s="22"/>
+    </row>
+    <row r="156" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B156" s="22"/>
+    </row>
+    <row r="157" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B157" s="22"/>
+    </row>
+    <row r="158" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B158" s="22"/>
+    </row>
+    <row r="159" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B159" s="22"/>
+    </row>
+    <row r="160" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B160" s="22"/>
+    </row>
+    <row r="161" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B161" s="22"/>
+    </row>
+    <row r="162" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B162" s="22"/>
+    </row>
+    <row r="163" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B163" s="22"/>
+    </row>
+    <row r="164" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B164" s="22"/>
+    </row>
+    <row r="165" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B165" s="22"/>
+    </row>
+    <row r="166" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B166" s="22"/>
+    </row>
+    <row r="167" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B167" s="22"/>
+    </row>
+    <row r="168" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B168" s="22"/>
+    </row>
+    <row r="169" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B169" s="22"/>
+    </row>
+    <row r="170" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B170" s="22"/>
+    </row>
+    <row r="171" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B171" s="22"/>
+    </row>
+    <row r="172" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B172" s="22"/>
+    </row>
+    <row r="173" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B173" s="22"/>
+    </row>
+    <row r="174" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B174" s="22"/>
+    </row>
+    <row r="175" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B175" s="22"/>
+    </row>
+    <row r="176" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B176" s="22"/>
+    </row>
+    <row r="177" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B177" s="22"/>
+    </row>
+    <row r="178" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B178" s="22"/>
+    </row>
+    <row r="179" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B179" s="22"/>
+    </row>
+    <row r="180" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B180" s="22"/>
+    </row>
+    <row r="181" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B181" s="22"/>
+    </row>
+    <row r="182" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B182" s="22"/>
+    </row>
+    <row r="183" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B183" s="22"/>
+    </row>
+    <row r="184" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B184" s="22"/>
+    </row>
+    <row r="185" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B185" s="22"/>
+    </row>
+    <row r="186" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B186" s="22"/>
+    </row>
+    <row r="187" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B187" s="22"/>
+    </row>
+    <row r="188" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B188" s="22"/>
+    </row>
+    <row r="189" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B189" s="22"/>
+    </row>
+    <row r="190" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B190" s="22"/>
+    </row>
+    <row r="191" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B191" s="22"/>
+    </row>
+    <row r="192" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B192" s="22"/>
+    </row>
+    <row r="193" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B193" s="22"/>
+    </row>
+    <row r="194" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B194" s="22"/>
+    </row>
+    <row r="195" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B195" s="22"/>
+    </row>
+    <row r="196" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B196" s="22"/>
+    </row>
+    <row r="197" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B197" s="22"/>
+    </row>
+    <row r="198" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B198" s="22"/>
+    </row>
+    <row r="199" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B199" s="22"/>
+    </row>
+    <row r="200" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B200" s="22"/>
+    </row>
+    <row r="201" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B201" s="22"/>
+    </row>
+    <row r="202" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B202" s="22"/>
+    </row>
+    <row r="203" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B203" s="22"/>
+    </row>
+    <row r="204" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B204" s="22"/>
+    </row>
+    <row r="205" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B205" s="22"/>
+    </row>
+    <row r="206" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B206" s="22"/>
+    </row>
+    <row r="207" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B207" s="22"/>
+    </row>
+    <row r="208" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B208" s="22"/>
+    </row>
+    <row r="209" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B209" s="22"/>
+    </row>
+    <row r="210" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B210" s="22"/>
+    </row>
+    <row r="211" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B211" s="22"/>
+    </row>
+    <row r="212" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B212" s="22"/>
+    </row>
+    <row r="213" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B213" s="22"/>
+    </row>
+    <row r="214" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B214" s="22"/>
+    </row>
+    <row r="215" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B215" s="22"/>
+    </row>
+    <row r="216" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B216" s="22"/>
+    </row>
+    <row r="217" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B217" s="22"/>
+    </row>
+    <row r="218" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B218" s="22"/>
+    </row>
+    <row r="219" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B219" s="22"/>
+    </row>
+    <row r="220" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B220" s="22"/>
+    </row>
+    <row r="221" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B221" s="22"/>
+    </row>
+    <row r="222" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B222" s="22"/>
+    </row>
+    <row r="223" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B223" s="22"/>
+    </row>
+    <row r="224" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B224" s="22"/>
+    </row>
+    <row r="225" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B225" s="22"/>
+    </row>
+    <row r="226" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B226" s="22"/>
+    </row>
+    <row r="227" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B227" s="22"/>
+    </row>
+    <row r="228" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B228" s="22"/>
+    </row>
+    <row r="229" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B229" s="22"/>
+    </row>
+    <row r="230" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B230" s="22"/>
+    </row>
+    <row r="231" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B231" s="22"/>
+    </row>
+    <row r="232" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B232" s="22"/>
+    </row>
+    <row r="233" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B233" s="22"/>
+    </row>
+    <row r="234" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B234" s="22"/>
+    </row>
+    <row r="235" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B235" s="22"/>
+    </row>
+    <row r="236" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B236" s="22"/>
+    </row>
+    <row r="237" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B237" s="22"/>
+    </row>
+    <row r="238" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B238" s="22"/>
+    </row>
+    <row r="239" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B239" s="22"/>
+    </row>
+    <row r="240" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B240" s="22"/>
+    </row>
+    <row r="241" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B241" s="22"/>
+    </row>
+    <row r="242" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B242" s="22"/>
+    </row>
+    <row r="243" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B243" s="22"/>
+    </row>
+    <row r="244" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B244" s="22"/>
+    </row>
+    <row r="245" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B245" s="22"/>
+    </row>
+    <row r="246" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B246" s="22"/>
+    </row>
+    <row r="247" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B247" s="22"/>
+    </row>
+    <row r="248" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B248" s="22"/>
+    </row>
+    <row r="249" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B249" s="22"/>
+    </row>
+    <row r="250" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B250" s="22"/>
+    </row>
+    <row r="251" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B251" s="22"/>
+    </row>
+    <row r="252" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B252" s="22"/>
+    </row>
+    <row r="253" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B253" s="22"/>
+    </row>
+    <row r="254" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B254" s="22"/>
+    </row>
+    <row r="255" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B255" s="22"/>
+    </row>
+    <row r="256" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B256" s="22"/>
+    </row>
+    <row r="257" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B257" s="22"/>
+    </row>
+    <row r="258" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B258" s="22"/>
+    </row>
+    <row r="259" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B259" s="22"/>
+    </row>
+    <row r="260" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B260" s="22"/>
+    </row>
+    <row r="261" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B261" s="22"/>
+    </row>
+    <row r="262" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B262" s="22"/>
+    </row>
+    <row r="263" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B263" s="22"/>
+    </row>
+    <row r="264" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B264" s="22"/>
+    </row>
+    <row r="265" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B265" s="22"/>
+    </row>
+    <row r="266" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B266" s="22"/>
+    </row>
+    <row r="267" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B267" s="22"/>
+    </row>
+    <row r="268" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B268" s="22"/>
+    </row>
+    <row r="269" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B269" s="22"/>
+    </row>
+    <row r="270" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B270" s="22"/>
+    </row>
+    <row r="271" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B271" s="22"/>
+    </row>
+    <row r="272" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B272" s="22"/>
+    </row>
+    <row r="273" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B273" s="22"/>
+    </row>
+    <row r="274" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B274" s="22"/>
+    </row>
+    <row r="275" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B275" s="22"/>
+    </row>
+    <row r="276" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B276" s="22"/>
+    </row>
+    <row r="277" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B277" s="22"/>
+    </row>
+    <row r="278" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B278" s="22"/>
+    </row>
+    <row r="279" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B279" s="22"/>
+    </row>
+    <row r="280" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B280" s="22"/>
+    </row>
+    <row r="281" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B281" s="22"/>
+    </row>
+    <row r="282" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B282" s="22"/>
+    </row>
+    <row r="283" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B283" s="22"/>
+    </row>
+    <row r="284" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B284" s="22"/>
+    </row>
+    <row r="285" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B285" s="22"/>
+    </row>
+    <row r="286" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B286" s="22"/>
+    </row>
+    <row r="287" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B287" s="22"/>
+    </row>
+    <row r="288" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B288" s="22"/>
+    </row>
+    <row r="289" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B289" s="22"/>
+    </row>
+    <row r="290" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B290" s="22"/>
+    </row>
+    <row r="291" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B291" s="22"/>
+    </row>
+    <row r="292" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B292" s="22"/>
+    </row>
+    <row r="293" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B293" s="22"/>
+    </row>
+    <row r="294" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B294" s="22"/>
+    </row>
+    <row r="295" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B295" s="22"/>
+    </row>
+    <row r="296" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B296" s="22"/>
+    </row>
+    <row r="297" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B297" s="22"/>
+    </row>
+    <row r="298" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B298" s="22"/>
+    </row>
+    <row r="299" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B299" s="22"/>
+    </row>
+    <row r="300" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B300" s="22"/>
+    </row>
+    <row r="301" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B301" s="22"/>
+    </row>
+    <row r="302" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B302" s="22"/>
+    </row>
+    <row r="303" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B303" s="22"/>
+    </row>
+    <row r="304" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B304" s="22"/>
+    </row>
+    <row r="305" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B305" s="22"/>
+    </row>
+    <row r="306" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B306" s="22"/>
+    </row>
+    <row r="307" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B307" s="22"/>
+    </row>
+    <row r="308" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B308" s="22"/>
+    </row>
+    <row r="309" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B309" s="22"/>
+    </row>
+    <row r="310" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B310" s="22"/>
+    </row>
+    <row r="311" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B311" s="22"/>
+    </row>
+    <row r="312" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B312" s="22"/>
+    </row>
+    <row r="313" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B313" s="22"/>
+    </row>
+    <row r="314" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B314" s="22"/>
+    </row>
+    <row r="315" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B315" s="22"/>
+    </row>
+    <row r="316" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B316" s="22"/>
+    </row>
+    <row r="317" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B317" s="22"/>
+    </row>
+    <row r="318" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B318" s="22"/>
+    </row>
+    <row r="319" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B319" s="22"/>
+    </row>
+    <row r="320" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B320" s="22"/>
+    </row>
+    <row r="321" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B321" s="22"/>
+    </row>
+    <row r="322" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B322" s="22"/>
+    </row>
+    <row r="323" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B323" s="22"/>
+    </row>
+    <row r="324" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B324" s="22"/>
+    </row>
+    <row r="325" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B325" s="22"/>
+    </row>
+    <row r="326" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B326" s="22"/>
+    </row>
+    <row r="327" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B327" s="22"/>
+    </row>
+    <row r="328" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B328" s="22"/>
+    </row>
+    <row r="329" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B329" s="22"/>
+    </row>
+    <row r="330" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B330" s="22"/>
+    </row>
+    <row r="331" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B331" s="22"/>
+    </row>
+    <row r="332" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B332" s="22"/>
+    </row>
+    <row r="333" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B333" s="22"/>
+    </row>
+    <row r="334" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B334" s="22"/>
+    </row>
+    <row r="335" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B335" s="22"/>
+    </row>
+    <row r="336" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B336" s="22"/>
+    </row>
+    <row r="337" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B337" s="22"/>
+    </row>
+    <row r="338" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B338" s="22"/>
+    </row>
+    <row r="339" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B339" s="22"/>
+    </row>
+    <row r="340" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B340" s="22"/>
+    </row>
+    <row r="341" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B341" s="22"/>
+    </row>
+    <row r="342" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B342" s="22"/>
+    </row>
+    <row r="343" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B343" s="22"/>
+    </row>
+    <row r="344" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B344" s="22"/>
+    </row>
+    <row r="345" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B345" s="22"/>
+    </row>
+    <row r="346" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B346" s="22"/>
+    </row>
+    <row r="347" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B347" s="22"/>
+    </row>
+    <row r="348" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B348" s="22"/>
+    </row>
+    <row r="349" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B349" s="22"/>
+    </row>
+    <row r="350" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B350" s="22"/>
+    </row>
+    <row r="351" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B351" s="22"/>
+    </row>
+    <row r="352" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B352" s="22"/>
+    </row>
+    <row r="353" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B353" s="22"/>
+    </row>
+    <row r="354" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B354" s="22"/>
+    </row>
+    <row r="355" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B355" s="22"/>
+    </row>
+    <row r="356" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B356" s="22"/>
+    </row>
+    <row r="357" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B357" s="22"/>
+    </row>
+    <row r="358" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B358" s="22"/>
+    </row>
+    <row r="359" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B359" s="22"/>
+    </row>
+    <row r="360" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B360" s="22"/>
+    </row>
+    <row r="361" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B361" s="22"/>
+    </row>
+    <row r="362" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B362" s="22"/>
+    </row>
+    <row r="363" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B363" s="22"/>
+    </row>
+    <row r="364" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B364" s="22"/>
+    </row>
+    <row r="365" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B365" s="22"/>
+    </row>
+    <row r="366" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B366" s="22"/>
+    </row>
+    <row r="367" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B367" s="22"/>
+    </row>
+    <row r="368" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B368" s="22"/>
+    </row>
+    <row r="369" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B369" s="22"/>
+    </row>
+    <row r="370" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B370" s="22"/>
+    </row>
+    <row r="371" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B371" s="22"/>
+    </row>
+    <row r="372" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B372" s="22"/>
+    </row>
+    <row r="373" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B373" s="22"/>
+    </row>
+    <row r="374" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B374" s="22"/>
+    </row>
+    <row r="375" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B375" s="22"/>
+    </row>
+    <row r="376" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B376" s="22"/>
+    </row>
+    <row r="377" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B377" s="22"/>
+    </row>
+    <row r="378" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B378" s="22"/>
+    </row>
+    <row r="379" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B379" s="22"/>
+    </row>
+    <row r="380" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B380" s="22"/>
+    </row>
+    <row r="381" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B381" s="22"/>
+    </row>
+    <row r="382" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B382" s="22"/>
+    </row>
+    <row r="383" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B383" s="22"/>
+    </row>
+    <row r="384" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B384" s="22"/>
+    </row>
+    <row r="385" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B385" s="22"/>
+    </row>
+    <row r="386" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B386" s="22"/>
+    </row>
+    <row r="387" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B387" s="22"/>
+    </row>
+    <row r="388" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B388" s="22"/>
+    </row>
+    <row r="389" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B389" s="22"/>
+    </row>
+    <row r="390" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B390" s="22"/>
+    </row>
+    <row r="391" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B391" s="22"/>
+    </row>
+    <row r="392" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B392" s="22"/>
+    </row>
+    <row r="393" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B393" s="22"/>
+    </row>
+    <row r="394" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B394" s="22"/>
+    </row>
+    <row r="395" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B395" s="22"/>
+    </row>
+    <row r="396" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B396" s="22"/>
+    </row>
+    <row r="397" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B397" s="22"/>
+    </row>
+    <row r="398" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B398" s="22"/>
+    </row>
+    <row r="399" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B399" s="22"/>
+    </row>
+    <row r="400" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B400" s="22"/>
+    </row>
+    <row r="401" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B401" s="22"/>
+    </row>
+    <row r="402" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B402" s="22"/>
+    </row>
+    <row r="403" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B403" s="22"/>
+    </row>
+    <row r="404" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B404" s="22"/>
+    </row>
+    <row r="405" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B405" s="22"/>
+    </row>
+    <row r="406" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B406" s="22"/>
+    </row>
+    <row r="407" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B407" s="22"/>
+    </row>
+    <row r="408" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B408" s="22"/>
+    </row>
+    <row r="409" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B409" s="22"/>
+    </row>
+    <row r="410" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B410" s="22"/>
+    </row>
+    <row r="411" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B411" s="22"/>
+    </row>
+    <row r="412" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B412" s="22"/>
+    </row>
+    <row r="413" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B413" s="22"/>
+    </row>
+    <row r="414" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B414" s="22"/>
+    </row>
+    <row r="415" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B415" s="22"/>
+    </row>
+    <row r="416" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B416" s="22"/>
+    </row>
+    <row r="417" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B417" s="22"/>
+    </row>
+    <row r="418" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B418" s="22"/>
+    </row>
+    <row r="419" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B419" s="22"/>
+    </row>
+    <row r="420" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B420" s="22"/>
+    </row>
+    <row r="421" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B421" s="22"/>
+    </row>
+    <row r="422" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B422" s="22"/>
+    </row>
+    <row r="423" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B423" s="22"/>
+    </row>
+    <row r="424" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B424" s="22"/>
+    </row>
+    <row r="425" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B425" s="22"/>
+    </row>
+    <row r="426" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B426" s="22"/>
+    </row>
+    <row r="427" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B427" s="22"/>
+    </row>
+    <row r="428" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B428" s="22"/>
+    </row>
+    <row r="429" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B429" s="22"/>
+    </row>
+    <row r="430" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B430" s="22"/>
+    </row>
+    <row r="431" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B431" s="22"/>
+    </row>
+    <row r="432" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B432" s="22"/>
+    </row>
+    <row r="433" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B433" s="22"/>
+    </row>
+    <row r="434" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B434" s="22"/>
+    </row>
+    <row r="435" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B435" s="22"/>
+    </row>
+    <row r="436" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B436" s="22"/>
+    </row>
+    <row r="437" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B437" s="22"/>
+    </row>
+    <row r="438" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B438" s="22"/>
+    </row>
+    <row r="439" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B439" s="22"/>
+    </row>
+    <row r="440" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B440" s="22"/>
+    </row>
+    <row r="441" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B441" s="22"/>
+    </row>
+    <row r="442" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B442" s="22"/>
+    </row>
+    <row r="443" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B443" s="22"/>
+    </row>
+    <row r="444" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B444" s="22"/>
+    </row>
+    <row r="445" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B445" s="22"/>
+    </row>
+    <row r="446" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B446" s="22"/>
+    </row>
+    <row r="447" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B447" s="22"/>
+    </row>
+    <row r="448" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B448" s="22"/>
+    </row>
+    <row r="449" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B449" s="22"/>
+    </row>
+    <row r="450" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B450" s="22"/>
+    </row>
+    <row r="451" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B451" s="22"/>
+    </row>
+    <row r="452" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B452" s="22"/>
+    </row>
+    <row r="453" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B453" s="22"/>
+    </row>
+    <row r="454" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B454" s="22"/>
+    </row>
+    <row r="455" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B455" s="22"/>
+    </row>
+    <row r="456" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B456" s="22"/>
+    </row>
+    <row r="457" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B457" s="22"/>
+    </row>
+    <row r="458" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B458" s="22"/>
+    </row>
+    <row r="459" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B459" s="22"/>
+    </row>
+    <row r="460" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B460" s="22"/>
+    </row>
+    <row r="461" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B461" s="22"/>
+    </row>
+    <row r="462" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B462" s="22"/>
+    </row>
+    <row r="463" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B463" s="22"/>
+    </row>
+    <row r="464" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B464" s="22"/>
+    </row>
+    <row r="465" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B465" s="22"/>
+    </row>
+    <row r="466" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B466" s="22"/>
+    </row>
+    <row r="467" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B467" s="22"/>
+    </row>
+    <row r="468" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B468" s="22"/>
+    </row>
+    <row r="469" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B469" s="22"/>
+    </row>
+    <row r="470" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B470" s="22"/>
+    </row>
+    <row r="471" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B471" s="22"/>
+    </row>
+    <row r="472" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B472" s="22"/>
+    </row>
+    <row r="473" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B473" s="22"/>
+    </row>
+    <row r="474" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B474" s="22"/>
+    </row>
+    <row r="475" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B475" s="22"/>
+    </row>
+    <row r="476" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B476" s="22"/>
+    </row>
+    <row r="477" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B477" s="22"/>
+    </row>
+    <row r="478" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B478" s="22"/>
+    </row>
+    <row r="479" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B479" s="22"/>
+    </row>
+    <row r="480" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B480" s="22"/>
+    </row>
+    <row r="481" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B481" s="22"/>
+    </row>
+    <row r="482" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B482" s="22"/>
+    </row>
+    <row r="483" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B483" s="22"/>
+    </row>
+    <row r="484" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B484" s="22"/>
+    </row>
+    <row r="485" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B485" s="22"/>
+    </row>
+    <row r="486" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B486" s="22"/>
+    </row>
+    <row r="487" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B487" s="22"/>
+    </row>
+    <row r="488" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B488" s="22"/>
+    </row>
+    <row r="489" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B489" s="22"/>
+    </row>
+    <row r="490" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B490" s="22"/>
+    </row>
+    <row r="491" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B491" s="22"/>
+    </row>
+    <row r="492" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B492" s="22"/>
+    </row>
+    <row r="493" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B493" s="22"/>
+    </row>
+    <row r="494" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B494" s="22"/>
+    </row>
+    <row r="495" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B495" s="22"/>
+    </row>
+    <row r="496" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B496" s="22"/>
+    </row>
+    <row r="497" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B497" s="22"/>
+    </row>
+    <row r="498" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B498" s="22"/>
+    </row>
+    <row r="499" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B499" s="22"/>
+    </row>
+    <row r="500" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B500" s="22"/>
+    </row>
+    <row r="501" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B501" s="22"/>
+    </row>
+    <row r="502" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B502" s="22"/>
+    </row>
+    <row r="503" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B503" s="22"/>
+    </row>
+    <row r="504" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B504" s="22"/>
+    </row>
+    <row r="505" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B505" s="22"/>
+    </row>
+    <row r="506" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B506" s="22"/>
+    </row>
+    <row r="507" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B507" s="22"/>
+    </row>
+    <row r="508" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B508" s="22"/>
+    </row>
+    <row r="509" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B509" s="22"/>
+    </row>
+    <row r="510" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B510" s="22"/>
+    </row>
+    <row r="511" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B511" s="22"/>
+    </row>
+    <row r="512" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B512" s="22"/>
+    </row>
+    <row r="513" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B513" s="22"/>
+    </row>
+    <row r="514" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B514" s="22"/>
+    </row>
+    <row r="515" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B515" s="22"/>
+    </row>
+    <row r="516" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B516" s="22"/>
+    </row>
+    <row r="517" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B517" s="22"/>
+    </row>
+    <row r="518" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B518" s="22"/>
+    </row>
+    <row r="519" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B519" s="22"/>
+    </row>
+    <row r="520" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B520" s="22"/>
+    </row>
+    <row r="521" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B521" s="22"/>
+    </row>
+    <row r="522" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B522" s="22"/>
+    </row>
+    <row r="523" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B523" s="22"/>
+    </row>
+    <row r="524" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B524" s="22"/>
+    </row>
+    <row r="525" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B525" s="22"/>
+    </row>
+    <row r="526" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B526" s="22"/>
+    </row>
+    <row r="527" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B527" s="22"/>
+    </row>
+    <row r="528" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B528" s="22"/>
+    </row>
+    <row r="529" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B529" s="22"/>
+    </row>
+    <row r="530" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B530" s="22"/>
+    </row>
+    <row r="531" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B531" s="22"/>
+    </row>
+    <row r="532" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B532" s="22"/>
+    </row>
+    <row r="533" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B533" s="22"/>
+    </row>
+    <row r="534" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B534" s="22"/>
+    </row>
+    <row r="535" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B535" s="22"/>
+    </row>
+    <row r="536" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B536" s="22"/>
+    </row>
+    <row r="537" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B537" s="22"/>
+    </row>
+    <row r="538" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B538" s="22"/>
+    </row>
+    <row r="539" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B539" s="22"/>
+    </row>
+    <row r="540" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B540" s="22"/>
+    </row>
+    <row r="541" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B541" s="22"/>
+    </row>
+    <row r="542" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B542" s="22"/>
+    </row>
+    <row r="543" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B543" s="22"/>
+    </row>
+    <row r="544" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B544" s="22"/>
+    </row>
+    <row r="545" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B545" s="22"/>
+    </row>
+    <row r="546" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B546" s="22"/>
+    </row>
+    <row r="547" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B547" s="22"/>
+    </row>
+    <row r="548" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B548" s="22"/>
+    </row>
+    <row r="549" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B549" s="22"/>
+    </row>
+    <row r="550" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B550" s="22"/>
+    </row>
+    <row r="551" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B551" s="22"/>
+    </row>
+    <row r="552" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B552" s="22"/>
+    </row>
+    <row r="553" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B553" s="22"/>
+    </row>
+    <row r="554" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B554" s="22"/>
+    </row>
+    <row r="555" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B555" s="22"/>
+    </row>
+    <row r="556" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B556" s="22"/>
+    </row>
+    <row r="557" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B557" s="22"/>
+    </row>
+    <row r="558" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B558" s="22"/>
+    </row>
+    <row r="559" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B559" s="22"/>
+    </row>
+    <row r="560" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B560" s="22"/>
+    </row>
+    <row r="561" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B561" s="22"/>
+    </row>
+    <row r="562" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B562" s="22"/>
+    </row>
+    <row r="563" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B563" s="22"/>
+    </row>
+    <row r="564" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B564" s="22"/>
+    </row>
+    <row r="565" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B565" s="22"/>
+    </row>
+    <row r="566" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B566" s="22"/>
+    </row>
+    <row r="567" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B567" s="22"/>
+    </row>
+    <row r="568" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B568" s="22"/>
+    </row>
+    <row r="569" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B569" s="22"/>
+    </row>
+    <row r="570" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B570" s="22"/>
+    </row>
+    <row r="571" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B571" s="22"/>
+    </row>
+    <row r="572" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B572" s="22"/>
+    </row>
+    <row r="573" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B573" s="22"/>
+    </row>
+    <row r="574" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B574" s="22"/>
+    </row>
+    <row r="575" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B575" s="22"/>
+    </row>
+    <row r="576" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B576" s="22"/>
+    </row>
+    <row r="577" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B577" s="22"/>
+    </row>
+    <row r="578" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B578" s="22"/>
+    </row>
+    <row r="579" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B579" s="22"/>
+    </row>
+    <row r="580" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B580" s="22"/>
+    </row>
+    <row r="581" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B581" s="22"/>
+    </row>
+    <row r="582" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B582" s="22"/>
+    </row>
+    <row r="583" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B583" s="22"/>
+    </row>
+    <row r="584" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B584" s="22"/>
+    </row>
+    <row r="585" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B585" s="22"/>
+    </row>
+    <row r="586" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B586" s="22"/>
+    </row>
+    <row r="587" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B587" s="22"/>
+    </row>
+    <row r="588" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B588" s="22"/>
+    </row>
+    <row r="589" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B589" s="22"/>
+    </row>
+    <row r="590" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B590" s="22"/>
+    </row>
+    <row r="591" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B591" s="22"/>
+    </row>
+    <row r="592" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B592" s="22"/>
+    </row>
+    <row r="593" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B593" s="22"/>
+    </row>
+    <row r="594" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B594" s="22"/>
+    </row>
+    <row r="595" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B595" s="22"/>
+    </row>
+    <row r="596" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B596" s="22"/>
+    </row>
+    <row r="597" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B597" s="22"/>
+    </row>
+    <row r="598" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B598" s="22"/>
+    </row>
+    <row r="599" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B599" s="22"/>
+    </row>
+    <row r="600" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B600" s="22"/>
+    </row>
+    <row r="601" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B601" s="22"/>
+    </row>
+    <row r="602" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B602" s="22"/>
+    </row>
+    <row r="603" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B603" s="22"/>
+    </row>
+    <row r="604" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B604" s="22"/>
+    </row>
+    <row r="605" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B605" s="22"/>
+    </row>
+    <row r="606" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B606" s="22"/>
+    </row>
+    <row r="607" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B607" s="22"/>
+    </row>
+    <row r="608" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B608" s="22"/>
+    </row>
+    <row r="609" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B609" s="22"/>
+    </row>
+    <row r="610" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B610" s="22"/>
+    </row>
+    <row r="611" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B611" s="22"/>
+    </row>
+    <row r="612" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B612" s="22"/>
+    </row>
+    <row r="613" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B613" s="22"/>
+    </row>
+    <row r="614" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B614" s="22"/>
+    </row>
+    <row r="615" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B615" s="22"/>
+    </row>
+    <row r="616" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B616" s="22"/>
+    </row>
+    <row r="617" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B617" s="22"/>
+    </row>
+    <row r="618" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B618" s="22"/>
+    </row>
+    <row r="619" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B619" s="22"/>
+    </row>
+    <row r="620" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B620" s="22"/>
+    </row>
+    <row r="621" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B621" s="22"/>
+    </row>
+    <row r="622" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B622" s="22"/>
+    </row>
+    <row r="623" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B623" s="22"/>
+    </row>
+    <row r="624" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B624" s="22"/>
+    </row>
+    <row r="625" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B625" s="22"/>
+    </row>
+    <row r="626" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B626" s="22"/>
+    </row>
+    <row r="627" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B627" s="22"/>
+    </row>
+    <row r="628" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B628" s="22"/>
+    </row>
+    <row r="629" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B629" s="22"/>
+    </row>
+    <row r="630" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B630" s="22"/>
+    </row>
+    <row r="631" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B631" s="22"/>
+    </row>
+    <row r="632" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B632" s="22"/>
+    </row>
+    <row r="633" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B633" s="22"/>
+    </row>
+    <row r="634" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B634" s="22"/>
+    </row>
+    <row r="635" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B635" s="22"/>
+    </row>
+    <row r="636" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B636" s="22"/>
+    </row>
+    <row r="637" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B637" s="22"/>
+    </row>
+    <row r="638" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B638" s="22"/>
+    </row>
+    <row r="639" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B639" s="22"/>
+    </row>
+    <row r="640" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B640" s="22"/>
+    </row>
+    <row r="641" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B641" s="22"/>
+    </row>
+    <row r="642" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B642" s="22"/>
+    </row>
+    <row r="643" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B643" s="22"/>
+    </row>
+    <row r="644" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B644" s="22"/>
+    </row>
+    <row r="645" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B645" s="22"/>
+    </row>
+    <row r="646" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B646" s="22"/>
+    </row>
+    <row r="647" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B647" s="22"/>
+    </row>
+    <row r="648" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B648" s="22"/>
+    </row>
+    <row r="649" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B649" s="22"/>
+    </row>
+    <row r="650" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B650" s="22"/>
+    </row>
+    <row r="651" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B651" s="22"/>
+    </row>
+    <row r="652" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B652" s="22"/>
+    </row>
+    <row r="653" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B653" s="22"/>
+    </row>
+    <row r="654" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B654" s="22"/>
+    </row>
+    <row r="655" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B655" s="22"/>
+    </row>
+    <row r="656" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B656" s="22"/>
+    </row>
+    <row r="657" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B657" s="22"/>
+    </row>
+    <row r="658" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B658" s="22"/>
+    </row>
+    <row r="659" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B659" s="22"/>
+    </row>
+    <row r="660" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B660" s="22"/>
+    </row>
+    <row r="661" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B661" s="22"/>
+    </row>
+    <row r="662" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B662" s="22"/>
+    </row>
+    <row r="663" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B663" s="22"/>
+    </row>
+    <row r="664" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B664" s="22"/>
+    </row>
+    <row r="665" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B665" s="22"/>
+    </row>
+    <row r="666" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B666" s="22"/>
+    </row>
+    <row r="667" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B667" s="22"/>
+    </row>
+    <row r="668" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B668" s="22"/>
+    </row>
+    <row r="669" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B669" s="22"/>
+    </row>
+    <row r="670" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B670" s="22"/>
+    </row>
+    <row r="671" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B671" s="22"/>
+    </row>
+    <row r="672" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B672" s="22"/>
+    </row>
+    <row r="673" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B673" s="22"/>
+    </row>
+    <row r="674" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B674" s="22"/>
+    </row>
+    <row r="675" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B675" s="22"/>
+    </row>
+    <row r="676" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B676" s="22"/>
+    </row>
+    <row r="677" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B677" s="22"/>
+    </row>
+    <row r="678" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B678" s="22"/>
+    </row>
+    <row r="679" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B679" s="22"/>
+    </row>
+    <row r="680" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B680" s="22"/>
+    </row>
+    <row r="681" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B681" s="22"/>
+    </row>
+    <row r="682" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B682" s="22"/>
+    </row>
+    <row r="683" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B683" s="22"/>
+    </row>
+    <row r="684" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B684" s="22"/>
+    </row>
+    <row r="685" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B685" s="22"/>
+    </row>
+    <row r="686" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B686" s="22"/>
+    </row>
+    <row r="687" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B687" s="22"/>
+    </row>
+    <row r="688" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B688" s="22"/>
+    </row>
+    <row r="689" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B689" s="22"/>
+    </row>
+    <row r="690" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B690" s="22"/>
+    </row>
+    <row r="691" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B691" s="22"/>
+    </row>
+    <row r="692" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B692" s="22"/>
+    </row>
+    <row r="693" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B693" s="22"/>
+    </row>
+    <row r="694" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B694" s="22"/>
+    </row>
+    <row r="695" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B695" s="22"/>
+    </row>
+    <row r="696" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B696" s="22"/>
+    </row>
+    <row r="697" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B697" s="22"/>
+    </row>
+    <row r="698" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B698" s="22"/>
+    </row>
+    <row r="699" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B699" s="22"/>
+    </row>
+    <row r="700" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B700" s="22"/>
+    </row>
+    <row r="701" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B701" s="22"/>
+    </row>
+    <row r="702" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B702" s="22"/>
+    </row>
+    <row r="703" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B703" s="22"/>
+    </row>
+    <row r="704" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B704" s="22"/>
+    </row>
+    <row r="705" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B705" s="22"/>
+    </row>
+    <row r="706" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B706" s="22"/>
+    </row>
+    <row r="707" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B707" s="22"/>
+    </row>
+    <row r="708" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B708" s="22"/>
+    </row>
+    <row r="709" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B709" s="22"/>
+    </row>
+    <row r="710" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B710" s="22"/>
+    </row>
+    <row r="711" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B711" s="22"/>
+    </row>
+    <row r="712" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B712" s="22"/>
+    </row>
+    <row r="713" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B713" s="22"/>
+    </row>
+    <row r="714" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B714" s="22"/>
+    </row>
+    <row r="715" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B715" s="22"/>
+    </row>
+    <row r="716" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B716" s="22"/>
+    </row>
+    <row r="717" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B717" s="22"/>
+    </row>
+    <row r="718" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B718" s="22"/>
+    </row>
+    <row r="719" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B719" s="22"/>
+    </row>
+    <row r="720" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B720" s="22"/>
+    </row>
+    <row r="721" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B721" s="22"/>
+    </row>
+    <row r="722" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B722" s="22"/>
+    </row>
+    <row r="723" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B723" s="22"/>
+    </row>
+    <row r="724" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B724" s="22"/>
+    </row>
+    <row r="725" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B725" s="22"/>
+    </row>
+    <row r="726" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B726" s="22"/>
+    </row>
+    <row r="727" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B727" s="22"/>
+    </row>
+    <row r="728" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B728" s="22"/>
+    </row>
+    <row r="729" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B729" s="22"/>
+    </row>
+    <row r="730" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B730" s="22"/>
+    </row>
+    <row r="731" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B731" s="22"/>
+    </row>
+    <row r="732" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B732" s="22"/>
+    </row>
+    <row r="733" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B733" s="22"/>
+    </row>
+    <row r="734" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B734" s="22"/>
+    </row>
+    <row r="735" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B735" s="22"/>
+    </row>
+    <row r="736" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B736" s="22"/>
+    </row>
+    <row r="737" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B737" s="22"/>
+    </row>
+    <row r="738" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B738" s="22"/>
+    </row>
+    <row r="739" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B739" s="22"/>
+    </row>
+    <row r="740" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B740" s="22"/>
+    </row>
+    <row r="741" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B741" s="22"/>
+    </row>
+    <row r="742" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B742" s="22"/>
+    </row>
+    <row r="743" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B743" s="22"/>
+    </row>
+    <row r="744" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B744" s="22"/>
+    </row>
+    <row r="745" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B745" s="22"/>
+    </row>
+    <row r="746" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B746" s="22"/>
+    </row>
+    <row r="747" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B747" s="22"/>
+    </row>
+    <row r="748" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B748" s="22"/>
+    </row>
+    <row r="749" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B749" s="22"/>
+    </row>
+    <row r="750" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B750" s="22"/>
+    </row>
+    <row r="751" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B751" s="22"/>
+    </row>
+    <row r="752" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B752" s="22"/>
+    </row>
+    <row r="753" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B753" s="22"/>
+    </row>
+    <row r="754" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B754" s="22"/>
+    </row>
+    <row r="755" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B755" s="22"/>
+    </row>
+    <row r="756" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B756" s="22"/>
+    </row>
+    <row r="757" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B757" s="22"/>
+    </row>
+    <row r="758" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B758" s="22"/>
+    </row>
+    <row r="759" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B759" s="22"/>
+    </row>
+    <row r="760" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B760" s="22"/>
+    </row>
+    <row r="761" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B761" s="22"/>
+    </row>
+    <row r="762" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B762" s="22"/>
+    </row>
+    <row r="763" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B763" s="22"/>
+    </row>
+    <row r="764" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B764" s="22"/>
+    </row>
+    <row r="765" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B765" s="22"/>
+    </row>
+    <row r="766" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B766" s="22"/>
+    </row>
+    <row r="767" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B767" s="22"/>
+    </row>
+    <row r="768" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B768" s="22"/>
+    </row>
+    <row r="769" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B769" s="22"/>
+    </row>
+    <row r="770" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B770" s="22"/>
+    </row>
+    <row r="771" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B771" s="22"/>
+    </row>
+    <row r="772" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B772" s="22"/>
+    </row>
+    <row r="773" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B773" s="22"/>
+    </row>
+    <row r="774" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B774" s="22"/>
+    </row>
+    <row r="775" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B775" s="22"/>
+    </row>
+    <row r="776" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B776" s="22"/>
+    </row>
+    <row r="777" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B777" s="22"/>
+    </row>
+    <row r="778" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B778" s="22"/>
+    </row>
+    <row r="779" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B779" s="22"/>
+    </row>
+    <row r="780" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B780" s="22"/>
+    </row>
+    <row r="781" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B781" s="22"/>
+    </row>
+    <row r="782" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B782" s="22"/>
+    </row>
+    <row r="783" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B783" s="22"/>
+    </row>
+    <row r="784" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B784" s="22"/>
+    </row>
+    <row r="785" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B785" s="22"/>
+    </row>
+    <row r="786" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B786" s="22"/>
+    </row>
+    <row r="787" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B787" s="22"/>
+    </row>
+    <row r="788" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B788" s="22"/>
+    </row>
+    <row r="789" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B789" s="22"/>
+    </row>
+    <row r="790" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B790" s="22"/>
+    </row>
+    <row r="791" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B791" s="22"/>
+    </row>
+    <row r="792" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B792" s="22"/>
+    </row>
+    <row r="793" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B793" s="22"/>
+    </row>
+    <row r="794" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B794" s="22"/>
+    </row>
+    <row r="795" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B795" s="22"/>
+    </row>
+    <row r="796" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B796" s="22"/>
+    </row>
+    <row r="797" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B797" s="22"/>
+    </row>
+    <row r="798" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B798" s="22"/>
+    </row>
+    <row r="799" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B799" s="22"/>
+    </row>
+    <row r="800" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B800" s="22"/>
+    </row>
+    <row r="801" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B801" s="22"/>
+    </row>
+    <row r="802" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B802" s="22"/>
+    </row>
+    <row r="803" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B803" s="22"/>
+    </row>
+    <row r="804" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B804" s="22"/>
+    </row>
+    <row r="805" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B805" s="22"/>
+    </row>
+    <row r="806" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B806" s="22"/>
+    </row>
+    <row r="807" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B807" s="22"/>
+    </row>
+    <row r="808" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B808" s="22"/>
+    </row>
+    <row r="809" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B809" s="22"/>
+    </row>
+    <row r="810" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B810" s="22"/>
+    </row>
+    <row r="811" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B811" s="22"/>
+    </row>
+    <row r="812" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B812" s="22"/>
+    </row>
+    <row r="813" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B813" s="22"/>
+    </row>
+    <row r="814" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B814" s="22"/>
+    </row>
+    <row r="815" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B815" s="22"/>
+    </row>
+    <row r="816" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B816" s="22"/>
+    </row>
+    <row r="817" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B817" s="22"/>
+    </row>
+    <row r="818" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B818" s="22"/>
+    </row>
+    <row r="819" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B819" s="22"/>
+    </row>
+    <row r="820" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B820" s="22"/>
+    </row>
+    <row r="821" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B821" s="22"/>
+    </row>
+    <row r="822" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B822" s="22"/>
+    </row>
+    <row r="823" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B823" s="22"/>
+    </row>
+    <row r="824" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B824" s="22"/>
+    </row>
+    <row r="825" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B825" s="22"/>
+    </row>
+    <row r="826" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B826" s="22"/>
+    </row>
+    <row r="827" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B827" s="22"/>
+    </row>
+    <row r="828" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B828" s="22"/>
+    </row>
+    <row r="829" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B829" s="22"/>
+    </row>
+    <row r="830" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B830" s="22"/>
+    </row>
+    <row r="831" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B831" s="22"/>
+    </row>
+    <row r="832" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B832" s="22"/>
+    </row>
+    <row r="833" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B833" s="22"/>
+    </row>
+    <row r="834" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B834" s="22"/>
+    </row>
+    <row r="835" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B835" s="22"/>
+    </row>
+    <row r="836" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B836" s="22"/>
+    </row>
+    <row r="837" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B837" s="22"/>
+    </row>
+    <row r="838" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B838" s="22"/>
+    </row>
+    <row r="839" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B839" s="22"/>
+    </row>
+    <row r="840" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B840" s="22"/>
+    </row>
+    <row r="841" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B841" s="22"/>
+    </row>
+    <row r="842" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B842" s="22"/>
+    </row>
+    <row r="843" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B843" s="22"/>
+    </row>
+    <row r="844" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B844" s="22"/>
+    </row>
+    <row r="845" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B845" s="22"/>
+    </row>
+    <row r="846" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B846" s="22"/>
+    </row>
+    <row r="847" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B847" s="22"/>
+    </row>
+    <row r="848" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B848" s="22"/>
+    </row>
+    <row r="849" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B849" s="22"/>
+    </row>
+    <row r="850" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B850" s="22"/>
+    </row>
+    <row r="851" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B851" s="22"/>
+    </row>
+    <row r="852" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B852" s="22"/>
+    </row>
+    <row r="853" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B853" s="22"/>
+    </row>
+    <row r="854" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B854" s="22"/>
+    </row>
+    <row r="855" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B855" s="22"/>
+    </row>
+    <row r="856" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B856" s="22"/>
+    </row>
+    <row r="857" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B857" s="22"/>
+    </row>
+    <row r="858" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B858" s="22"/>
+    </row>
+    <row r="859" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B859" s="22"/>
+    </row>
+    <row r="860" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B860" s="22"/>
+    </row>
+    <row r="861" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B861" s="22"/>
+    </row>
+    <row r="862" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B862" s="22"/>
+    </row>
+    <row r="863" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B863" s="22"/>
+    </row>
+    <row r="864" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B864" s="22"/>
+    </row>
+    <row r="865" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B865" s="22"/>
+    </row>
+    <row r="866" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B866" s="22"/>
+    </row>
+    <row r="867" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B867" s="22"/>
+    </row>
+    <row r="868" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B868" s="22"/>
+    </row>
+    <row r="869" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B869" s="22"/>
+    </row>
+    <row r="870" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B870" s="22"/>
+    </row>
+    <row r="871" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B871" s="22"/>
+    </row>
+    <row r="872" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B872" s="22"/>
+    </row>
+    <row r="873" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B873" s="22"/>
+    </row>
+    <row r="874" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B874" s="22"/>
+    </row>
+    <row r="875" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B875" s="22"/>
+    </row>
+    <row r="876" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B876" s="22"/>
+    </row>
+    <row r="877" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B877" s="22"/>
+    </row>
+    <row r="878" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B878" s="22"/>
+    </row>
+    <row r="879" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B879" s="22"/>
+    </row>
+    <row r="880" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B880" s="22"/>
+    </row>
+    <row r="881" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B881" s="22"/>
+    </row>
+    <row r="882" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B882" s="22"/>
+    </row>
+    <row r="883" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B883" s="22"/>
+    </row>
+    <row r="884" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B884" s="22"/>
+    </row>
+    <row r="885" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B885" s="22"/>
+    </row>
+    <row r="886" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B886" s="22"/>
+    </row>
+    <row r="887" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B887" s="22"/>
+    </row>
+    <row r="888" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B888" s="22"/>
+    </row>
+    <row r="889" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B889" s="22"/>
+    </row>
+    <row r="890" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B890" s="22"/>
+    </row>
+    <row r="891" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B891" s="22"/>
+    </row>
+    <row r="892" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B892" s="22"/>
+    </row>
+    <row r="893" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B893" s="22"/>
+    </row>
+    <row r="894" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B894" s="22"/>
+    </row>
+    <row r="895" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B895" s="22"/>
+    </row>
+    <row r="896" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B896" s="22"/>
+    </row>
+    <row r="897" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B897" s="22"/>
+    </row>
+    <row r="898" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B898" s="22"/>
+    </row>
+    <row r="899" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B899" s="22"/>
+    </row>
+    <row r="900" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B900" s="22"/>
+    </row>
+    <row r="901" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B901" s="22"/>
+    </row>
+    <row r="902" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B902" s="22"/>
+    </row>
+    <row r="903" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B903" s="22"/>
+    </row>
+    <row r="904" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B904" s="22"/>
+    </row>
+    <row r="905" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B905" s="22"/>
+    </row>
+    <row r="906" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B906" s="22"/>
+    </row>
+    <row r="907" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B907" s="22"/>
+    </row>
+    <row r="908" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B908" s="22"/>
+    </row>
+    <row r="909" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B909" s="22"/>
+    </row>
+    <row r="910" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B910" s="22"/>
+    </row>
+    <row r="911" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B911" s="22"/>
+    </row>
+    <row r="912" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B912" s="22"/>
+    </row>
+    <row r="913" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B913" s="22"/>
+    </row>
+    <row r="914" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B914" s="22"/>
+    </row>
+    <row r="915" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B915" s="22"/>
+    </row>
+    <row r="916" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B916" s="22"/>
+    </row>
+    <row r="917" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B917" s="22"/>
+    </row>
+    <row r="918" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B918" s="22"/>
+    </row>
+    <row r="919" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B919" s="22"/>
+    </row>
+    <row r="920" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B920" s="22"/>
+    </row>
+    <row r="921" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B921" s="22"/>
+    </row>
+    <row r="922" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B922" s="22"/>
+    </row>
+    <row r="923" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B923" s="22"/>
+    </row>
+    <row r="924" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B924" s="22"/>
+    </row>
+    <row r="925" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B925" s="22"/>
+    </row>
+    <row r="926" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B926" s="22"/>
+    </row>
+    <row r="927" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B927" s="22"/>
+    </row>
+    <row r="928" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B928" s="22"/>
+    </row>
+    <row r="929" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B929" s="22"/>
+    </row>
+    <row r="930" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B930" s="22"/>
+    </row>
+    <row r="931" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B931" s="22"/>
+    </row>
+    <row r="932" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B932" s="22"/>
+    </row>
+    <row r="933" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B933" s="22"/>
+    </row>
+    <row r="934" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B934" s="22"/>
+    </row>
+    <row r="935" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B935" s="22"/>
+    </row>
+    <row r="936" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B936" s="22"/>
+    </row>
+    <row r="937" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B937" s="22"/>
+    </row>
+    <row r="938" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B938" s="22"/>
+    </row>
+    <row r="939" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B939" s="22"/>
+    </row>
+    <row r="940" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B940" s="22"/>
+    </row>
+    <row r="941" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B941" s="22"/>
+    </row>
+    <row r="942" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B942" s="22"/>
+    </row>
+    <row r="943" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B943" s="22"/>
+    </row>
+    <row r="944" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B944" s="22"/>
+    </row>
+    <row r="945" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B945" s="22"/>
+    </row>
+    <row r="946" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B946" s="22"/>
+    </row>
+    <row r="947" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B947" s="22"/>
+    </row>
+    <row r="948" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B948" s="22"/>
+    </row>
+    <row r="949" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B949" s="22"/>
+    </row>
+    <row r="950" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B950" s="22"/>
+    </row>
+    <row r="951" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B951" s="22"/>
+    </row>
+    <row r="952" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B952" s="22"/>
+    </row>
+    <row r="953" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B953" s="22"/>
+    </row>
+    <row r="954" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B954" s="22"/>
+    </row>
+    <row r="955" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B955" s="22"/>
+    </row>
+    <row r="956" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B956" s="22"/>
+    </row>
+    <row r="957" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B957" s="22"/>
+    </row>
+    <row r="958" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B958" s="22"/>
+    </row>
+    <row r="959" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B959" s="22"/>
+    </row>
+    <row r="960" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B960" s="22"/>
+    </row>
+    <row r="961" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B961" s="22"/>
+    </row>
+    <row r="962" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B962" s="22"/>
+    </row>
+    <row r="963" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B963" s="22"/>
+    </row>
+    <row r="964" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B964" s="22"/>
+    </row>
+    <row r="965" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B965" s="22"/>
+    </row>
+    <row r="966" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B966" s="22"/>
+    </row>
+    <row r="967" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B967" s="22"/>
+    </row>
+    <row r="968" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B968" s="22"/>
+    </row>
+    <row r="969" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B969" s="22"/>
+    </row>
+    <row r="970" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B970" s="22"/>
+    </row>
+    <row r="971" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B971" s="22"/>
+    </row>
+    <row r="972" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B972" s="22"/>
+    </row>
+    <row r="973" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B973" s="22"/>
+    </row>
+    <row r="974" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B974" s="22"/>
+    </row>
+    <row r="975" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B975" s="22"/>
+    </row>
+    <row r="976" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B976" s="22"/>
+    </row>
+    <row r="977" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B977" s="22"/>
+    </row>
+    <row r="978" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B978" s="22"/>
+    </row>
+    <row r="979" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B979" s="22"/>
+    </row>
+    <row r="980" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B980" s="22"/>
+    </row>
+    <row r="981" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B981" s="22"/>
+    </row>
+    <row r="982" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B982" s="22"/>
+    </row>
+    <row r="983" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B983" s="22"/>
+    </row>
+    <row r="984" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B984" s="22"/>
+    </row>
+    <row r="985" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B985" s="22"/>
+    </row>
+    <row r="986" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B986" s="22"/>
+    </row>
+    <row r="987" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B987" s="22"/>
+    </row>
+    <row r="988" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B988" s="22"/>
+    </row>
+    <row r="989" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B989" s="22"/>
+    </row>
+    <row r="990" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B990" s="22"/>
+    </row>
+    <row r="991" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B991" s="22"/>
+    </row>
+    <row r="992" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B992" s="22"/>
+    </row>
+    <row r="993" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B993" s="22"/>
+    </row>
+    <row r="994" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B994" s="22"/>
+    </row>
+    <row r="995" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B995" s="22"/>
+    </row>
+    <row r="996" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B996" s="22"/>
+    </row>
+    <row r="997" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B997" s="22"/>
+    </row>
+    <row r="998" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B998" s="22"/>
+    </row>
+    <row r="999" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B999" s="22"/>
+    </row>
+    <row r="1000" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B1000" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/storage/app/iprs/1/week_2.xlsx
+++ b/storage/app/iprs/1/week_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CE3C3B-F470-46CA-8946-57999F80C2E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378F192A-94B7-4C58-B5E2-BE8052884B13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -745,10 +745,10 @@
   <dimension ref="A1:AMP1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B53" sqref="B53:B92"/>
+      <selection pane="bottomRight" activeCell="AQ51" sqref="AQ51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4228,7 +4228,7 @@
     <row r="92" spans="2:2" ht="15.75" thickBot="1">
       <c r="B92" s="22"/>
     </row>
-    <row r="93" spans="2:2" thickBot="1">
+    <row r="93" spans="2:2" ht="15.75" thickBot="1">
       <c r="B93" s="22"/>
     </row>
     <row r="94" spans="2:2" ht="15.75" thickBot="1">
